--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4602,28 +4602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.0680712130657</v>
+        <v>391.6407566853684</v>
       </c>
       <c r="AB2" t="n">
-        <v>478.9785789470428</v>
+        <v>535.8601612676891</v>
       </c>
       <c r="AC2" t="n">
-        <v>433.2655356229939</v>
+        <v>484.71841956076</v>
       </c>
       <c r="AD2" t="n">
-        <v>350068.0712130657</v>
+        <v>391640.7566853684</v>
       </c>
       <c r="AE2" t="n">
-        <v>478978.5789470428</v>
+        <v>535860.1612676891</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.427330141622545e-06</v>
+        <v>4.103522039313314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.346354166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>433265.5356229939</v>
+        <v>484718.41956076</v>
       </c>
     </row>
     <row r="3">
@@ -4708,28 +4708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.8058673714736</v>
+        <v>214.8787277846234</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.4912966801032</v>
+        <v>294.0065551352061</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.4893202952791</v>
+        <v>265.9469821539805</v>
       </c>
       <c r="AD3" t="n">
-        <v>183805.8673714736</v>
+        <v>214878.7277846235</v>
       </c>
       <c r="AE3" t="n">
-        <v>251491.2966801032</v>
+        <v>294006.5551352061</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.736135200675735e-06</v>
+        <v>6.316121929577719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>227489.3202952791</v>
+        <v>265946.9821539805</v>
       </c>
     </row>
     <row r="4">
@@ -4814,28 +4814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.4245827462004</v>
+        <v>185.5826945053709</v>
       </c>
       <c r="AB4" t="n">
-        <v>211.2905268450289</v>
+        <v>253.9224299527811</v>
       </c>
       <c r="AC4" t="n">
-        <v>191.1252555111166</v>
+        <v>229.6884296205303</v>
       </c>
       <c r="AD4" t="n">
-        <v>154424.5827462004</v>
+        <v>185582.6945053709</v>
       </c>
       <c r="AE4" t="n">
-        <v>211290.5268450289</v>
+        <v>253922.4299527811</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.142277446850751e-06</v>
+        <v>7.002725547971938e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.891493055555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>191125.2555111166</v>
+        <v>229688.4296205303</v>
       </c>
     </row>
     <row r="5">
@@ -4920,28 +4920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>142.5970892466792</v>
+        <v>163.5113985104122</v>
       </c>
       <c r="AB5" t="n">
-        <v>195.1076284468052</v>
+        <v>223.723509055636</v>
       </c>
       <c r="AC5" t="n">
-        <v>176.4868302231737</v>
+        <v>202.3716513493475</v>
       </c>
       <c r="AD5" t="n">
-        <v>142597.0892466792</v>
+        <v>163511.3985104123</v>
       </c>
       <c r="AE5" t="n">
-        <v>195107.6284468052</v>
+        <v>223723.509055636</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.431245320853436e-06</v>
+        <v>7.49124007646162e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.572482638888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>176486.8302231737</v>
+        <v>202371.6513493475</v>
       </c>
     </row>
     <row r="6">
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>138.097047677861</v>
+        <v>158.8407647410017</v>
       </c>
       <c r="AB6" t="n">
-        <v>188.9504730445285</v>
+        <v>217.3329418785124</v>
       </c>
       <c r="AC6" t="n">
-        <v>170.9173050908664</v>
+        <v>196.5909909343891</v>
       </c>
       <c r="AD6" t="n">
-        <v>138097.0476778609</v>
+        <v>158840.7647410017</v>
       </c>
       <c r="AE6" t="n">
-        <v>188950.4730445285</v>
+        <v>217332.9418785124</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.557756296386113e-06</v>
+        <v>7.705113157593611e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.446614583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>170917.3050908664</v>
+        <v>196590.9909343891</v>
       </c>
     </row>
     <row r="7">
@@ -5132,28 +5132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>133.4339060480519</v>
+        <v>154.1776231111927</v>
       </c>
       <c r="AB7" t="n">
-        <v>182.5701569433375</v>
+        <v>210.9526257773214</v>
       </c>
       <c r="AC7" t="n">
-        <v>165.1459174035411</v>
+        <v>190.8196032470639</v>
       </c>
       <c r="AD7" t="n">
-        <v>133433.9060480519</v>
+        <v>154177.6231111927</v>
       </c>
       <c r="AE7" t="n">
-        <v>182570.1569433375</v>
+        <v>210952.6257773214</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.684080539851583e-06</v>
+        <v>7.918670558901055e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.325086805555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>165145.9174035412</v>
+        <v>190819.6032470639</v>
       </c>
     </row>
     <row r="8">
@@ -5238,28 +5238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>131.4638220154752</v>
+        <v>152.2075390786161</v>
       </c>
       <c r="AB8" t="n">
-        <v>179.874601055994</v>
+        <v>208.2570698899779</v>
       </c>
       <c r="AC8" t="n">
-        <v>162.7076215868485</v>
+        <v>188.3813074303712</v>
       </c>
       <c r="AD8" t="n">
-        <v>131463.8220154752</v>
+        <v>152207.5390786161</v>
       </c>
       <c r="AE8" t="n">
-        <v>179874.601055994</v>
+        <v>208257.0698899779</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.733004341459792e-06</v>
+        <v>8.001378672932912e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.281684027777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>162707.6215868485</v>
+        <v>188381.3074303712</v>
       </c>
     </row>
     <row r="9">
@@ -5344,28 +5344,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>127.7817654349252</v>
+        <v>148.525482498066</v>
       </c>
       <c r="AB9" t="n">
-        <v>174.8366488016161</v>
+        <v>203.2191176356</v>
       </c>
       <c r="AC9" t="n">
-        <v>158.1504844248163</v>
+        <v>183.8241702683391</v>
       </c>
       <c r="AD9" t="n">
-        <v>127781.7654349252</v>
+        <v>148525.482498066</v>
       </c>
       <c r="AE9" t="n">
-        <v>174836.6488016161</v>
+        <v>203219.1176356</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.834026389818727e-06</v>
+        <v>8.172161458013955e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.190538194444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>158150.4844248163</v>
+        <v>183824.1702683391</v>
       </c>
     </row>
     <row r="10">
@@ -5450,28 +5450,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>126.2722366371266</v>
+        <v>147.0159537002674</v>
       </c>
       <c r="AB10" t="n">
-        <v>172.7712449047586</v>
+        <v>201.1537137387425</v>
       </c>
       <c r="AC10" t="n">
-        <v>156.2821997770617</v>
+        <v>181.9558856205844</v>
       </c>
       <c r="AD10" t="n">
-        <v>126272.2366371266</v>
+        <v>147015.9537002674</v>
       </c>
       <c r="AE10" t="n">
-        <v>172771.2449047586</v>
+        <v>201153.7137387425</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.863623422471021e-06</v>
+        <v>8.222196710204983e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>156282.1997770617</v>
+        <v>181955.8856205844</v>
       </c>
     </row>
     <row r="11">
@@ -5556,28 +5556,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>123.6056513733731</v>
+        <v>144.3493684365139</v>
       </c>
       <c r="AB11" t="n">
-        <v>169.1227053054538</v>
+        <v>197.5051741394378</v>
       </c>
       <c r="AC11" t="n">
-        <v>152.981871676356</v>
+        <v>178.6555575198787</v>
       </c>
       <c r="AD11" t="n">
-        <v>123605.6513733731</v>
+        <v>144349.3684365139</v>
       </c>
       <c r="AE11" t="n">
-        <v>169122.7053054539</v>
+        <v>197505.1741394378</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.931127064766318e-06</v>
+        <v>8.336314966779469e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.108072916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>152981.871676356</v>
+        <v>178655.5575198787</v>
       </c>
     </row>
     <row r="12">
@@ -5662,28 +5662,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>123.0589799066962</v>
+        <v>143.802696969837</v>
       </c>
       <c r="AB12" t="n">
-        <v>168.3747252873038</v>
+        <v>196.7571941212877</v>
       </c>
       <c r="AC12" t="n">
-        <v>152.3052778213414</v>
+        <v>177.9789636648641</v>
       </c>
       <c r="AD12" t="n">
-        <v>123058.9799066962</v>
+        <v>143802.696969837</v>
       </c>
       <c r="AE12" t="n">
-        <v>168374.7252873038</v>
+        <v>196757.1941212877</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.921416997271558e-06</v>
+        <v>8.319899615902918e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.116753472222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>152305.2778213414</v>
+        <v>177978.9636648641</v>
       </c>
     </row>
     <row r="13">
@@ -5768,28 +5768,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>121.334198287972</v>
+        <v>142.0779153511128</v>
       </c>
       <c r="AB13" t="n">
-        <v>166.0148029845719</v>
+        <v>194.3972718185558</v>
       </c>
       <c r="AC13" t="n">
-        <v>150.1705831910097</v>
+        <v>175.8442690345324</v>
       </c>
       <c r="AD13" t="n">
-        <v>121334.198287972</v>
+        <v>142077.9153511128</v>
       </c>
       <c r="AE13" t="n">
-        <v>166014.8029845719</v>
+        <v>194397.2718185558</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.955028769368801e-06</v>
+        <v>8.37672198432175e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.088541666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>150170.5831910097</v>
+        <v>175844.2690345324</v>
       </c>
     </row>
     <row r="14">
@@ -5874,28 +5874,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>119.1039637549567</v>
+        <v>139.8476808180976</v>
       </c>
       <c r="AB14" t="n">
-        <v>162.9632977054984</v>
+        <v>191.3457665394824</v>
       </c>
       <c r="AC14" t="n">
-        <v>147.4103092929554</v>
+        <v>173.0839951364782</v>
       </c>
       <c r="AD14" t="n">
-        <v>119103.9637549567</v>
+        <v>139847.6808180975</v>
       </c>
       <c r="AE14" t="n">
-        <v>162963.2977054984</v>
+        <v>191345.7665394823</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.001058223935303e-06</v>
+        <v>8.454537061073094e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.051649305555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>147410.3092929554</v>
+        <v>173083.9951364782</v>
       </c>
     </row>
     <row r="15">
@@ -5980,28 +5980,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>117.7563232155388</v>
+        <v>138.5000402786796</v>
       </c>
       <c r="AB15" t="n">
-        <v>161.1193964657631</v>
+        <v>189.5018652997471</v>
       </c>
       <c r="AC15" t="n">
-        <v>145.7423873996083</v>
+        <v>171.416073243131</v>
       </c>
       <c r="AD15" t="n">
-        <v>117756.3232155388</v>
+        <v>138500.0402786796</v>
       </c>
       <c r="AE15" t="n">
-        <v>161119.3964657632</v>
+        <v>189501.8652997471</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.014316200706993e-06</v>
+        <v>8.476950328616078e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.040798611111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>145742.3873996083</v>
+        <v>171416.073243131</v>
       </c>
     </row>
     <row r="16">
@@ -6086,28 +6086,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>117.7600463545251</v>
+        <v>138.5037634176659</v>
       </c>
       <c r="AB16" t="n">
-        <v>161.1244906287776</v>
+        <v>189.5069594627615</v>
       </c>
       <c r="AC16" t="n">
-        <v>145.7469953828543</v>
+        <v>171.420681226377</v>
       </c>
       <c r="AD16" t="n">
-        <v>117760.0463545251</v>
+        <v>138503.7634176659</v>
       </c>
       <c r="AE16" t="n">
-        <v>161124.4906287776</v>
+        <v>189506.9594627615</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.996296556221527e-06</v>
+        <v>8.446487225547095e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.055989583333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>145746.9953828543</v>
+        <v>171420.681226377</v>
       </c>
     </row>
     <row r="17">
@@ -6192,28 +6192,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>116.6462611153043</v>
+        <v>137.3899781784451</v>
       </c>
       <c r="AB17" t="n">
-        <v>159.6005605277396</v>
+        <v>187.9830293617235</v>
       </c>
       <c r="AC17" t="n">
-        <v>144.3685070318095</v>
+        <v>170.0421928753323</v>
       </c>
       <c r="AD17" t="n">
-        <v>116646.2611153043</v>
+        <v>137389.9781784451</v>
       </c>
       <c r="AE17" t="n">
-        <v>159600.5605277396</v>
+        <v>187983.0293617235</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.026920615243459e-06</v>
+        <v>8.498258716773141e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.029947916666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>144368.5070318095</v>
+        <v>170042.1928753323</v>
       </c>
     </row>
   </sheetData>
@@ -6489,28 +6489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.2030968436998</v>
+        <v>287.4748898838345</v>
       </c>
       <c r="AB2" t="n">
-        <v>351.9166241011864</v>
+        <v>393.3358268361193</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.3301954151583</v>
+        <v>355.7964075731794</v>
       </c>
       <c r="AD2" t="n">
-        <v>257203.0968436998</v>
+        <v>287474.8898838345</v>
       </c>
       <c r="AE2" t="n">
-        <v>351916.6241011864</v>
+        <v>393335.8268361193</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.961998430462212e-06</v>
+        <v>5.129562246053498e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.076822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>318330.1954151583</v>
+        <v>355796.4075731794</v>
       </c>
     </row>
     <row r="3">
@@ -6595,28 +6595,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.8239314846098</v>
+        <v>174.0102941616182</v>
       </c>
       <c r="AB3" t="n">
-        <v>196.7862481212006</v>
+        <v>238.0885612641954</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.0052447918029</v>
+        <v>215.3657231366039</v>
       </c>
       <c r="AD3" t="n">
-        <v>143823.9314846098</v>
+        <v>174010.2941616182</v>
       </c>
       <c r="AE3" t="n">
-        <v>196786.2481212006</v>
+        <v>238088.5612641954</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.237221480561425e-06</v>
+        <v>7.337982056750481e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.945746527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>178005.2447918029</v>
+        <v>215365.7231366039</v>
       </c>
     </row>
     <row r="4">
@@ -6701,28 +6701,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.4484652968252</v>
+        <v>152.7149418391168</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.2218334329321</v>
+        <v>208.9513207319246</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.9262759965845</v>
+        <v>189.0092999463499</v>
       </c>
       <c r="AD4" t="n">
-        <v>132448.4652968252</v>
+        <v>152714.9418391168</v>
       </c>
       <c r="AE4" t="n">
-        <v>181221.8334329321</v>
+        <v>208951.3207319246</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.573050500117206e-06</v>
+        <v>7.919567732869045e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>163926.2759965845</v>
+        <v>189009.2999463499</v>
       </c>
     </row>
     <row r="5">
@@ -6807,28 +6807,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.3132833904627</v>
+        <v>144.4091677321622</v>
       </c>
       <c r="AB5" t="n">
-        <v>170.0909186497566</v>
+        <v>197.5869941739023</v>
       </c>
       <c r="AC5" t="n">
-        <v>153.8576800979748</v>
+        <v>178.7295687650891</v>
       </c>
       <c r="AD5" t="n">
-        <v>124313.2833904627</v>
+        <v>144409.1677321622</v>
       </c>
       <c r="AE5" t="n">
-        <v>170090.9186497566</v>
+        <v>197586.9941739023</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.824173724403955e-06</v>
+        <v>8.354460674458998e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.344618055555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>153857.6800979748</v>
+        <v>178729.5687650891</v>
       </c>
     </row>
     <row r="6">
@@ -6913,28 +6913,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>121.1637568862814</v>
+        <v>141.2596412279808</v>
       </c>
       <c r="AB6" t="n">
-        <v>165.781597539435</v>
+        <v>193.2776730635807</v>
       </c>
       <c r="AC6" t="n">
-        <v>149.9596345462507</v>
+        <v>174.831523213365</v>
       </c>
       <c r="AD6" t="n">
-        <v>121163.7568862814</v>
+        <v>141259.6412279808</v>
       </c>
       <c r="AE6" t="n">
-        <v>165781.597539435</v>
+        <v>193277.6730635807</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.918538105222476e-06</v>
+        <v>8.517880060587222e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.262152777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>149959.6345462507</v>
+        <v>174831.523213365</v>
       </c>
     </row>
     <row r="7">
@@ -7019,28 +7019,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>118.4316846895487</v>
+        <v>138.5275690312482</v>
       </c>
       <c r="AB7" t="n">
-        <v>162.0434558293485</v>
+        <v>189.5395313534942</v>
       </c>
       <c r="AC7" t="n">
-        <v>146.5782558344588</v>
+        <v>171.4501445015732</v>
       </c>
       <c r="AD7" t="n">
-        <v>118431.6846895487</v>
+        <v>138527.5690312482</v>
       </c>
       <c r="AE7" t="n">
-        <v>162043.4558293485</v>
+        <v>189539.5313534942</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.990880910988159e-06</v>
+        <v>8.643162681068329e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.19921875</v>
       </c>
       <c r="AH7" t="n">
-        <v>146578.2558344588</v>
+        <v>171450.1445015732</v>
       </c>
     </row>
     <row r="8">
@@ -7125,28 +7125,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>114.794162414785</v>
+        <v>134.8900467564844</v>
       </c>
       <c r="AB8" t="n">
-        <v>157.0664373768623</v>
+        <v>184.562512901008</v>
       </c>
       <c r="AC8" t="n">
-        <v>142.0762370377871</v>
+        <v>166.9481257049014</v>
       </c>
       <c r="AD8" t="n">
-        <v>114794.162414785</v>
+        <v>134890.0467564844</v>
       </c>
       <c r="AE8" t="n">
-        <v>157066.4373768623</v>
+        <v>184562.512901008</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.103789776061702e-06</v>
+        <v>8.838697238267811e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.105902777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>142076.2370377871</v>
+        <v>166948.1257049014</v>
       </c>
     </row>
     <row r="9">
@@ -7231,28 +7231,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>112.8937259527514</v>
+        <v>132.9896102944508</v>
       </c>
       <c r="AB9" t="n">
-        <v>154.4661763681698</v>
+        <v>181.9622518923155</v>
       </c>
       <c r="AC9" t="n">
-        <v>139.7241412902741</v>
+        <v>164.5960299573884</v>
       </c>
       <c r="AD9" t="n">
-        <v>112893.7259527514</v>
+        <v>132989.6102944508</v>
       </c>
       <c r="AE9" t="n">
-        <v>154466.1763681698</v>
+        <v>181962.2518923155</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.137305067918433e-06</v>
+        <v>8.896738719318471e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.079861111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>139724.1412902741</v>
+        <v>164596.0299573884</v>
       </c>
     </row>
     <row r="10">
@@ -7337,28 +7337,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>111.1512501047293</v>
+        <v>131.2471344464287</v>
       </c>
       <c r="AB10" t="n">
-        <v>152.0820440402982</v>
+        <v>179.5781195644439</v>
       </c>
       <c r="AC10" t="n">
-        <v>137.567547205623</v>
+        <v>162.4394358727374</v>
       </c>
       <c r="AD10" t="n">
-        <v>111151.2501047293</v>
+        <v>131247.1344464287</v>
       </c>
       <c r="AE10" t="n">
-        <v>152082.0440402982</v>
+        <v>179578.1195644439</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.170240844642195e-06</v>
+        <v>8.953776601273153e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.053819444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>137567.547205623</v>
+        <v>162439.4358727374</v>
       </c>
     </row>
     <row r="11">
@@ -7443,28 +7443,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>108.9038185700562</v>
+        <v>128.9997029117556</v>
       </c>
       <c r="AB11" t="n">
-        <v>149.0070090648782</v>
+        <v>176.5030845890239</v>
       </c>
       <c r="AC11" t="n">
-        <v>134.7859892524175</v>
+        <v>159.6578779195318</v>
       </c>
       <c r="AD11" t="n">
-        <v>108903.8185700562</v>
+        <v>128999.7029117556</v>
       </c>
       <c r="AE11" t="n">
-        <v>149007.0090648782</v>
+        <v>176503.0845890239</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.206557126308279e-06</v>
+        <v>9.0166688112877e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.025607638888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>134785.9892524175</v>
+        <v>159657.8779195318</v>
       </c>
     </row>
     <row r="12">
@@ -7549,28 +7549,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>107.4465760725813</v>
+        <v>127.5424604142807</v>
       </c>
       <c r="AB12" t="n">
-        <v>147.0131455908324</v>
+        <v>174.509221114978</v>
       </c>
       <c r="AC12" t="n">
-        <v>132.9824173099289</v>
+        <v>157.8543059770433</v>
       </c>
       <c r="AD12" t="n">
-        <v>107446.5760725813</v>
+        <v>127542.4604142807</v>
       </c>
       <c r="AE12" t="n">
-        <v>147013.1455908323</v>
+        <v>174509.221114978</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.233504579991357e-06</v>
+        <v>9.063336169250622e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.006076388888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>132982.4173099289</v>
+        <v>157854.3059770433</v>
       </c>
     </row>
     <row r="13">
@@ -7655,28 +7655,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>97.44226195816601</v>
+        <v>127.5432837806027</v>
       </c>
       <c r="AB13" t="n">
-        <v>133.3248016603071</v>
+        <v>174.5103476811043</v>
       </c>
       <c r="AC13" t="n">
-        <v>120.6004697124173</v>
+        <v>157.8553250252796</v>
       </c>
       <c r="AD13" t="n">
-        <v>97442.26195816601</v>
+        <v>127543.2837806027</v>
       </c>
       <c r="AE13" t="n">
-        <v>133324.8016603071</v>
+        <v>174510.3476811043</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.240169004020505e-06</v>
+        <v>9.074877558854355e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.999565972222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>120600.4697124173</v>
+        <v>157855.3250252796</v>
       </c>
     </row>
   </sheetData>
@@ -7952,28 +7952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.1406641904028</v>
+        <v>139.4014201739769</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.4358040421847</v>
+        <v>190.7351730385666</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.7921062529441</v>
+        <v>172.5316758223163</v>
       </c>
       <c r="AD2" t="n">
-        <v>112140.6641904028</v>
+        <v>139401.4201739769</v>
       </c>
       <c r="AE2" t="n">
-        <v>153435.8040421847</v>
+        <v>190735.1730385666</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.690077066072281e-06</v>
+        <v>8.874635065377251e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.986979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>138792.106252944</v>
+        <v>172531.6758223163</v>
       </c>
     </row>
     <row r="3">
@@ -8058,28 +8058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.72956268638646</v>
+        <v>111.8750425657963</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.2449227239289</v>
+        <v>153.0723688169994</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.0054072920706</v>
+        <v>138.4633567755657</v>
       </c>
       <c r="AD3" t="n">
-        <v>93729.56268638646</v>
+        <v>111875.0425657963</v>
       </c>
       <c r="AE3" t="n">
-        <v>128244.9227239289</v>
+        <v>153072.3688169994</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.487509798380776e-06</v>
+        <v>1.038354939423095e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.262152777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>116005.4072920706</v>
+        <v>138463.3567755657</v>
       </c>
     </row>
     <row r="4">
@@ -8164,28 +8164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.9877918541673</v>
+        <v>105.1332717335772</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.0205344453534</v>
+        <v>143.8479805384239</v>
       </c>
       <c r="AC4" t="n">
-        <v>107.6613816842891</v>
+        <v>130.1193311677843</v>
       </c>
       <c r="AD4" t="n">
-        <v>86987.7918541673</v>
+        <v>105133.2717335772</v>
       </c>
       <c r="AE4" t="n">
-        <v>119020.5344453534</v>
+        <v>143847.9805384239</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.776133241700435e-06</v>
+        <v>1.092968705778956e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.049479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>107661.3816842891</v>
+        <v>130119.3311677843</v>
       </c>
     </row>
     <row r="5">
@@ -8270,28 +8270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.15259284959117</v>
+        <v>104.2980727290011</v>
       </c>
       <c r="AB5" t="n">
-        <v>117.8777783209134</v>
+        <v>142.7052244139838</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.627688600497</v>
+        <v>129.0856380839921</v>
       </c>
       <c r="AD5" t="n">
-        <v>86152.59284959118</v>
+        <v>104298.0727290011</v>
       </c>
       <c r="AE5" t="n">
-        <v>117877.7783209134</v>
+        <v>142705.2244139838</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.827865598979537e-06</v>
+        <v>1.102757581003308e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.012586805555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>106627.688600497</v>
+        <v>129085.6380839921</v>
       </c>
     </row>
   </sheetData>
@@ -8567,28 +8567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.0569884086595</v>
+        <v>181.5468807455765</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.4193239384024</v>
+        <v>248.4004515190961</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.4326375836482</v>
+        <v>224.6934610584091</v>
       </c>
       <c r="AD2" t="n">
-        <v>153056.9884086596</v>
+        <v>181546.8807455765</v>
       </c>
       <c r="AE2" t="n">
-        <v>209419.3239384024</v>
+        <v>248400.4515190961</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.001838996545817e-06</v>
+        <v>7.290481553202514e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.590277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>189432.6375836482</v>
+        <v>224693.4610584091</v>
       </c>
     </row>
     <row r="3">
@@ -8673,28 +8673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.1178427274338</v>
+        <v>132.1964451399501</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.7728228266244</v>
+        <v>180.8770083359511</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.0015218411149</v>
+        <v>163.6143605228943</v>
       </c>
       <c r="AD3" t="n">
-        <v>113117.8427274338</v>
+        <v>132196.4451399501</v>
       </c>
       <c r="AE3" t="n">
-        <v>154772.8228266244</v>
+        <v>180877.0083359511</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.912880384057188e-06</v>
+        <v>8.950201106035261e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.555121527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>140001.5218411149</v>
+        <v>163614.3605228942</v>
       </c>
     </row>
     <row r="4">
@@ -8779,28 +8779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.2468587858808</v>
+        <v>122.1548689978049</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.2669071207213</v>
+        <v>167.1376808552012</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.7845917745072</v>
+        <v>151.1862951736355</v>
       </c>
       <c r="AD4" t="n">
-        <v>103246.8587858808</v>
+        <v>122154.8689978049</v>
       </c>
       <c r="AE4" t="n">
-        <v>141266.9071207213</v>
+        <v>167137.6808552012</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.296330239212778e-06</v>
+        <v>9.648763466490784e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.225260416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>127784.5917745072</v>
+        <v>151186.2951736355</v>
       </c>
     </row>
     <row r="5">
@@ -8885,28 +8885,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.47173121987981</v>
+        <v>116.3797414318039</v>
       </c>
       <c r="AB5" t="n">
-        <v>133.365122804276</v>
+        <v>159.2358965387559</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.6369426629969</v>
+        <v>144.0386460621253</v>
       </c>
       <c r="AD5" t="n">
-        <v>97471.73121987982</v>
+        <v>116379.7414318039</v>
       </c>
       <c r="AE5" t="n">
-        <v>133365.122804276</v>
+        <v>159235.8965387559</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.515739029686317e-06</v>
+        <v>1.004847863267775e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.055989583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>120636.9426629969</v>
+        <v>144038.6460621253</v>
       </c>
     </row>
     <row r="6">
@@ -8991,28 +8991,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>84.93017247182267</v>
+        <v>113.2493830995964</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.2052088306704</v>
+        <v>154.9528021669689</v>
       </c>
       <c r="AC6" t="n">
-        <v>105.1147467949363</v>
+        <v>140.1643242058196</v>
       </c>
       <c r="AD6" t="n">
-        <v>84930.17247182268</v>
+        <v>113249.3830995964</v>
       </c>
       <c r="AE6" t="n">
-        <v>116205.2088306704</v>
+        <v>154952.8021669689</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.594099311998297e-06</v>
+        <v>1.01912340491731e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.999565972222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>105114.7467949363</v>
+        <v>140164.3242058195</v>
       </c>
     </row>
     <row r="7">
@@ -9097,28 +9097,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>84.47421901804229</v>
+        <v>112.793429645816</v>
       </c>
       <c r="AB7" t="n">
-        <v>115.5813531999617</v>
+        <v>154.3289465362601</v>
       </c>
       <c r="AC7" t="n">
-        <v>104.5504310700353</v>
+        <v>139.6000084809186</v>
       </c>
       <c r="AD7" t="n">
-        <v>84474.21901804229</v>
+        <v>112793.4296458161</v>
       </c>
       <c r="AE7" t="n">
-        <v>115581.3531999617</v>
+        <v>154328.9465362601</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.593068255652086e-06</v>
+        <v>1.018935568842974e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.999565972222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>104550.4310700353</v>
+        <v>139600.0084809186</v>
       </c>
     </row>
   </sheetData>
@@ -9394,28 +9394,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.7097657850862</v>
+        <v>108.4004065737922</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.1131033795352</v>
+        <v>148.3182185626204</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.2679229868596</v>
+        <v>134.1629359489714</v>
       </c>
       <c r="AD2" t="n">
-        <v>90709.7657850862</v>
+        <v>108400.4065737922</v>
       </c>
       <c r="AE2" t="n">
-        <v>124113.1033795352</v>
+        <v>148318.2185626204</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.37362413155216e-06</v>
+        <v>1.053057191363397e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.520399305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>112267.9229868596</v>
+        <v>134162.9359489714</v>
       </c>
     </row>
     <row r="3">
@@ -9500,28 +9500,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.24863185908212</v>
+        <v>98.76868044719592</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.1679625462124</v>
+        <v>135.1396659544507</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.5582482260457</v>
+        <v>122.2421259055065</v>
       </c>
       <c r="AD3" t="n">
-        <v>81248.63185908212</v>
+        <v>98768.68044719592</v>
       </c>
       <c r="AE3" t="n">
-        <v>111167.9625462124</v>
+        <v>135139.6659544507</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.86076167858728e-06</v>
+        <v>1.148520454987733e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.144965277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>100558.2482260457</v>
+        <v>122242.1259055065</v>
       </c>
     </row>
     <row r="4">
@@ -9606,28 +9606,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.6392566911713</v>
+        <v>98.15930527928512</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.3341885577422</v>
+        <v>134.3058919659805</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.80404845682571</v>
+        <v>121.4879261362865</v>
       </c>
       <c r="AD4" t="n">
-        <v>80639.25669117129</v>
+        <v>98159.30527928512</v>
       </c>
       <c r="AE4" t="n">
-        <v>110334.1885577422</v>
+        <v>134305.8919659805</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.927138646737976e-06</v>
+        <v>1.161528202076251e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.099392361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>99804.04845682571</v>
+        <v>121487.9261362865</v>
       </c>
     </row>
   </sheetData>
@@ -9903,28 +9903,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.4238257965955</v>
+        <v>314.9560595560675</v>
       </c>
       <c r="AB2" t="n">
-        <v>375.4787851796474</v>
+        <v>430.9367755653089</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.6436169098858</v>
+        <v>389.8087745289182</v>
       </c>
       <c r="AD2" t="n">
-        <v>274423.8257965954</v>
+        <v>314956.0595560676</v>
       </c>
       <c r="AE2" t="n">
-        <v>375478.7851796474</v>
+        <v>430936.7755653089</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.825123608182407e-06</v>
+        <v>4.8605720761472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.352430555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>339643.6169098858</v>
+        <v>389808.7745289182</v>
       </c>
     </row>
     <row r="3">
@@ -10009,28 +10009,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.826843080567</v>
+        <v>182.1783455691499</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.4186259991824</v>
+        <v>249.2644495489707</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.2867430968774</v>
+        <v>225.4750003289416</v>
       </c>
       <c r="AD3" t="n">
-        <v>161826.843080567</v>
+        <v>182178.3455691499</v>
       </c>
       <c r="AE3" t="n">
-        <v>221418.6259991824</v>
+        <v>249264.4495489707</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.089944321667832e-06</v>
+        <v>7.036672344289132e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>200286.7430968774</v>
+        <v>225475.0003289416</v>
       </c>
     </row>
     <row r="4">
@@ -10115,28 +10115,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.0838233827246</v>
+        <v>168.5256019982008</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.9323789805082</v>
+        <v>230.5841634786705</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.9009378989211</v>
+        <v>208.5775345432387</v>
       </c>
       <c r="AD4" t="n">
-        <v>138083.8233827246</v>
+        <v>168525.6019982008</v>
       </c>
       <c r="AE4" t="n">
-        <v>188932.3789805082</v>
+        <v>230584.1634786705</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.451184928046974e-06</v>
+        <v>7.658180018874243e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.665798611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>170900.9378989211</v>
+        <v>208577.5345432387</v>
       </c>
     </row>
     <row r="5">
@@ -10221,28 +10221,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.8429954069004</v>
+        <v>148.1091570409118</v>
       </c>
       <c r="AB5" t="n">
-        <v>174.9204263505483</v>
+        <v>202.649482778139</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.2262663620611</v>
+        <v>183.3089005621864</v>
       </c>
       <c r="AD5" t="n">
-        <v>127842.9954069004</v>
+        <v>148109.1570409118</v>
       </c>
       <c r="AE5" t="n">
-        <v>174920.4263505483</v>
+        <v>202649.482778139</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.746954263953586e-06</v>
+        <v>8.167045602994007e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="AH5" t="n">
-        <v>158226.2663620611</v>
+        <v>183308.9005621864</v>
       </c>
     </row>
     <row r="6">
@@ -10327,28 +10327,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>125.2144206616686</v>
+        <v>145.4805822956799</v>
       </c>
       <c r="AB6" t="n">
-        <v>171.3238944195905</v>
+        <v>199.0529508471811</v>
       </c>
       <c r="AC6" t="n">
-        <v>154.9729823908284</v>
+        <v>180.0556165909537</v>
       </c>
       <c r="AD6" t="n">
-        <v>125214.4206616686</v>
+        <v>145480.5822956799</v>
       </c>
       <c r="AE6" t="n">
-        <v>171323.8944195904</v>
+        <v>199052.9508471811</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.83013340728784e-06</v>
+        <v>8.310153755939015e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.301215277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>154972.9823908284</v>
+        <v>180055.6165909538</v>
       </c>
     </row>
     <row r="7">
@@ -10433,28 +10433,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>123.0309501499562</v>
+        <v>143.2971117839675</v>
       </c>
       <c r="AB7" t="n">
-        <v>168.3363737375466</v>
+        <v>196.0654301651373</v>
       </c>
       <c r="AC7" t="n">
-        <v>152.2705864896662</v>
+        <v>177.3532206897916</v>
       </c>
       <c r="AD7" t="n">
-        <v>123030.9501499562</v>
+        <v>143297.1117839675</v>
       </c>
       <c r="AE7" t="n">
-        <v>168336.3737375466</v>
+        <v>196065.4301651373</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.885267108738394e-06</v>
+        <v>8.40501025317299e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.251302083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>152270.5864896662</v>
+        <v>177353.2206897916</v>
       </c>
     </row>
     <row r="8">
@@ -10539,28 +10539,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>119.1769423186489</v>
+        <v>139.4431039526602</v>
       </c>
       <c r="AB8" t="n">
-        <v>163.0631501959289</v>
+        <v>190.7922066235196</v>
       </c>
       <c r="AC8" t="n">
-        <v>147.5006320018431</v>
+        <v>172.5832662019685</v>
       </c>
       <c r="AD8" t="n">
-        <v>119176.9423186489</v>
+        <v>139443.1039526602</v>
       </c>
       <c r="AE8" t="n">
-        <v>163063.1501959289</v>
+        <v>190792.2066235196</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.994385892859279e-06</v>
+        <v>8.592747070615235e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.157986111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>147500.6320018432</v>
+        <v>172583.2662019685</v>
       </c>
     </row>
     <row r="9">
@@ -10645,28 +10645,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>117.1135326330048</v>
+        <v>137.3796942670161</v>
       </c>
       <c r="AB9" t="n">
-        <v>160.2399020328215</v>
+        <v>187.9689584604122</v>
       </c>
       <c r="AC9" t="n">
-        <v>144.9468306809681</v>
+        <v>170.0294648810935</v>
       </c>
       <c r="AD9" t="n">
-        <v>117113.5326330048</v>
+        <v>137379.6942670161</v>
       </c>
       <c r="AE9" t="n">
-        <v>160239.9020328215</v>
+        <v>187968.9584604122</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.044159373335472e-06</v>
+        <v>8.678381408395907e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.118923611111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>144946.8306809681</v>
+        <v>170029.4648810935</v>
       </c>
     </row>
     <row r="10">
@@ -10751,28 +10751,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>115.1618481826134</v>
+        <v>135.4280098166247</v>
       </c>
       <c r="AB10" t="n">
-        <v>157.5695212655562</v>
+        <v>185.2985776931468</v>
       </c>
       <c r="AC10" t="n">
-        <v>142.5313073062268</v>
+        <v>167.6139415063521</v>
       </c>
       <c r="AD10" t="n">
-        <v>115161.8481826134</v>
+        <v>135428.0098166247</v>
       </c>
       <c r="AE10" t="n">
-        <v>157569.5212655562</v>
+        <v>185298.5776931468</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.079479400827233e-06</v>
+        <v>8.739148851936423e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.088541666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>142531.3073062268</v>
+        <v>167613.9415063522</v>
       </c>
     </row>
     <row r="11">
@@ -10857,28 +10857,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>113.1024918445469</v>
+        <v>133.3686534785583</v>
       </c>
       <c r="AB11" t="n">
-        <v>154.7518190714255</v>
+        <v>182.4808754990162</v>
       </c>
       <c r="AC11" t="n">
-        <v>139.9825226548332</v>
+        <v>165.0651568549585</v>
       </c>
       <c r="AD11" t="n">
-        <v>113102.491844547</v>
+        <v>133368.6534785583</v>
       </c>
       <c r="AE11" t="n">
-        <v>154751.8190714255</v>
+        <v>182480.8754990161</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.133751638192621e-06</v>
+        <v>8.832523216401118e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.045138888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>139982.5226548332</v>
+        <v>165065.1568549585</v>
       </c>
     </row>
     <row r="12">
@@ -10963,28 +10963,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>111.3675327433594</v>
+        <v>131.6336943773707</v>
       </c>
       <c r="AB12" t="n">
-        <v>152.3779714881883</v>
+        <v>180.107027915779</v>
       </c>
       <c r="AC12" t="n">
-        <v>137.8352317532234</v>
+        <v>162.9178659533488</v>
       </c>
       <c r="AD12" t="n">
-        <v>111367.5327433594</v>
+        <v>131633.6943773707</v>
       </c>
       <c r="AE12" t="n">
-        <v>152377.9714881883</v>
+        <v>180107.0279157789</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.146482163006723e-06</v>
+        <v>8.854425845102711e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.036458333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>137835.2317532234</v>
+        <v>162917.8659533488</v>
       </c>
     </row>
     <row r="13">
@@ -11069,28 +11069,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>110.564510668209</v>
+        <v>130.8306723022204</v>
       </c>
       <c r="AB13" t="n">
-        <v>151.2792412581344</v>
+        <v>179.0082976857252</v>
       </c>
       <c r="AC13" t="n">
-        <v>136.8413627942479</v>
+        <v>161.9239969943733</v>
       </c>
       <c r="AD13" t="n">
-        <v>110564.510668209</v>
+        <v>130830.6723022204</v>
       </c>
       <c r="AE13" t="n">
-        <v>151279.2412581345</v>
+        <v>179008.2976857251</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.158351223735663e-06</v>
+        <v>8.874846341035027e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>136841.362794248</v>
+        <v>161923.9969943733</v>
       </c>
     </row>
     <row r="14">
@@ -11175,28 +11175,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>110.792088643818</v>
+        <v>131.0582502778293</v>
       </c>
       <c r="AB14" t="n">
-        <v>151.5906234843942</v>
+        <v>179.3196799119848</v>
       </c>
       <c r="AC14" t="n">
-        <v>137.1230271378612</v>
+        <v>162.2056613379866</v>
       </c>
       <c r="AD14" t="n">
-        <v>110792.088643818</v>
+        <v>131058.2502778293</v>
       </c>
       <c r="AE14" t="n">
-        <v>151590.6234843942</v>
+        <v>179319.6799119848</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.158542660199032e-06</v>
+        <v>8.875175703872645e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>137123.0271378612</v>
+        <v>162205.6613379866</v>
       </c>
     </row>
   </sheetData>
@@ -11472,28 +11472,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.11974567922499</v>
+        <v>102.4400374996389</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.4645912564178</v>
+        <v>140.1629786424427</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.3493741260159</v>
+        <v>126.7860206808217</v>
       </c>
       <c r="AD2" t="n">
-        <v>85119.74567922499</v>
+        <v>102440.0374996389</v>
       </c>
       <c r="AE2" t="n">
-        <v>116464.5912564178</v>
+        <v>140162.9786424427</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.46295638126552e-06</v>
+        <v>1.09513721966506e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.55078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>105349.3741260159</v>
+        <v>126786.0206808217</v>
       </c>
     </row>
     <row r="3">
@@ -11578,28 +11578,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.06520203804649</v>
+        <v>94.21490165786824</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.4440093051762</v>
+        <v>128.9089849163542</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.38058104871338</v>
+        <v>116.6060923208682</v>
       </c>
       <c r="AD3" t="n">
-        <v>77065.2020380465</v>
+        <v>94214.90165786823</v>
       </c>
       <c r="AE3" t="n">
-        <v>105444.0093051762</v>
+        <v>128908.9849163542</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.969502682753381e-06</v>
+        <v>1.19668254961597e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.164496527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>95380.58104871339</v>
+        <v>116606.0923208682</v>
       </c>
     </row>
   </sheetData>
@@ -11875,28 +11875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.1716732466019</v>
+        <v>229.5291771335258</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.8837142868409</v>
+        <v>314.0519462665736</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.7446369935924</v>
+        <v>284.0792692896598</v>
       </c>
       <c r="AD2" t="n">
-        <v>200171.6732466019</v>
+        <v>229529.1771335258</v>
       </c>
       <c r="AE2" t="n">
-        <v>273883.7142868409</v>
+        <v>314051.9462665736</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.441868597426529e-06</v>
+        <v>6.095805040627623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.273871527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>247744.6369935924</v>
+        <v>284079.2692896598</v>
       </c>
     </row>
     <row r="3">
@@ -11981,28 +11981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.9966150664826</v>
+        <v>159.3540294448555</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.867103779781</v>
+        <v>218.0352132899653</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.8917170331365</v>
+        <v>197.2262385479773</v>
       </c>
       <c r="AD3" t="n">
-        <v>129996.6150664826</v>
+        <v>159354.0294448555</v>
       </c>
       <c r="AE3" t="n">
-        <v>177867.103779781</v>
+        <v>218035.2132899653</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.513328949249221e-06</v>
+        <v>7.99344094060269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.78515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>160891.7170331365</v>
+        <v>197226.2385479774</v>
       </c>
     </row>
     <row r="4">
@@ -12087,28 +12087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.1782254502295</v>
+        <v>137.7214775928386</v>
       </c>
       <c r="AB4" t="n">
-        <v>161.6966617162797</v>
+        <v>188.4366014852184</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.2645592648126</v>
+        <v>170.4524767119535</v>
       </c>
       <c r="AD4" t="n">
-        <v>118178.2254502295</v>
+        <v>137721.4775928386</v>
       </c>
       <c r="AE4" t="n">
-        <v>161696.6617162797</v>
+        <v>188436.6014852184</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.897550033895586e-06</v>
+        <v>8.673925031789069e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.409722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>146264.5592648126</v>
+        <v>170452.4767119535</v>
       </c>
     </row>
     <row r="5">
@@ -12193,28 +12193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.887442079886</v>
+        <v>132.430694222495</v>
       </c>
       <c r="AB5" t="n">
-        <v>154.4575784960904</v>
+        <v>181.1975182650291</v>
       </c>
       <c r="AC5" t="n">
-        <v>139.7163639870388</v>
+        <v>163.9042814341796</v>
       </c>
       <c r="AD5" t="n">
-        <v>112887.442079886</v>
+        <v>132430.694222495</v>
       </c>
       <c r="AE5" t="n">
-        <v>154457.5784960904</v>
+        <v>181197.5182650291</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.078564836530069e-06</v>
+        <v>8.994515697903552e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.251302083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>139716.3639870388</v>
+        <v>163904.2814341796</v>
       </c>
     </row>
     <row r="6">
@@ -12299,28 +12299,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.8742581989999</v>
+        <v>129.417510341609</v>
       </c>
       <c r="AB6" t="n">
-        <v>150.3348073779732</v>
+        <v>177.0747471469119</v>
       </c>
       <c r="AC6" t="n">
-        <v>135.9870643580878</v>
+        <v>160.1749818052287</v>
       </c>
       <c r="AD6" t="n">
-        <v>109874.2581989999</v>
+        <v>129417.510341609</v>
       </c>
       <c r="AE6" t="n">
-        <v>150334.8073779733</v>
+        <v>177074.7471469119</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.164444866587001e-06</v>
+        <v>9.146615612613173e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.181857638888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>135987.0643580878</v>
+        <v>160174.9818052287</v>
       </c>
     </row>
     <row r="7">
@@ -12405,28 +12405,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>105.1979848893251</v>
+        <v>124.7412370319342</v>
       </c>
       <c r="AB7" t="n">
-        <v>143.9365239330611</v>
+        <v>170.6764637019998</v>
       </c>
       <c r="AC7" t="n">
-        <v>130.1994241051088</v>
+        <v>154.3873415522496</v>
       </c>
       <c r="AD7" t="n">
-        <v>105197.9848893251</v>
+        <v>124741.2370319342</v>
       </c>
       <c r="AE7" t="n">
-        <v>143936.5239330611</v>
+        <v>170676.4637019998</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.322472082960589e-06</v>
+        <v>9.426493555323341e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.058159722222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>130199.4241051088</v>
+        <v>154387.3415522497</v>
       </c>
     </row>
     <row r="8">
@@ -12511,28 +12511,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>102.9310060764057</v>
+        <v>122.4742582190148</v>
       </c>
       <c r="AB8" t="n">
-        <v>140.8347435091796</v>
+        <v>167.5746832781183</v>
       </c>
       <c r="AC8" t="n">
-        <v>127.3936732515054</v>
+        <v>151.5815906986463</v>
       </c>
       <c r="AD8" t="n">
-        <v>102931.0060764057</v>
+        <v>122474.2582190148</v>
       </c>
       <c r="AE8" t="n">
-        <v>140834.7435091796</v>
+        <v>167574.6832781183</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.354415871660794e-06</v>
+        <v>9.48306837875531e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.034288194444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>127393.6732515054</v>
+        <v>151581.5906986463</v>
       </c>
     </row>
     <row r="9">
@@ -12617,28 +12617,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>101.3507215162619</v>
+        <v>120.8939736588709</v>
       </c>
       <c r="AB9" t="n">
-        <v>138.6725284567574</v>
+        <v>165.4124682256962</v>
       </c>
       <c r="AC9" t="n">
-        <v>125.4378169689979</v>
+        <v>149.6257344161387</v>
       </c>
       <c r="AD9" t="n">
-        <v>101350.7215162619</v>
+        <v>120893.9736588709</v>
       </c>
       <c r="AE9" t="n">
-        <v>138672.5284567575</v>
+        <v>165412.4682256962</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.390041654697156e-06</v>
+        <v>9.546164287754204e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.006076388888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>125437.8169689979</v>
+        <v>149625.7344161387</v>
       </c>
     </row>
     <row r="10">
@@ -12723,28 +12723,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>101.564890906009</v>
+        <v>121.1081430486181</v>
       </c>
       <c r="AB10" t="n">
-        <v>138.965564464296</v>
+        <v>165.7055042332347</v>
       </c>
       <c r="AC10" t="n">
-        <v>125.7028860312556</v>
+        <v>149.8908034783965</v>
       </c>
       <c r="AD10" t="n">
-        <v>101564.890906009</v>
+        <v>121108.1430486181</v>
       </c>
       <c r="AE10" t="n">
-        <v>138965.564464296</v>
+        <v>165705.5042332347</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.388150900848858e-06</v>
+        <v>9.542815622192811e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.008246527777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>125702.8860312556</v>
+        <v>149890.8034783965</v>
       </c>
     </row>
   </sheetData>
@@ -13020,28 +13020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.2773096585428</v>
+        <v>270.2007355792766</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.075574192579</v>
+        <v>369.7005668347203</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.0052036030784</v>
+        <v>334.4168636140183</v>
       </c>
       <c r="AD2" t="n">
-        <v>230277.3096585428</v>
+        <v>270200.7355792766</v>
       </c>
       <c r="AE2" t="n">
-        <v>315075.574192579</v>
+        <v>369700.5668347204</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.112694303791141e-06</v>
+        <v>5.428267067821732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>285005.2036030784</v>
+        <v>334416.8636140183</v>
       </c>
     </row>
     <row r="3">
@@ -13126,28 +13126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.2740083509289</v>
+        <v>167.1952425778338</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.8243543274881</v>
+        <v>228.7639070284098</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.8986615636625</v>
+        <v>206.9310008138443</v>
       </c>
       <c r="AD3" t="n">
-        <v>137274.0083509289</v>
+        <v>167195.2425778338</v>
       </c>
       <c r="AE3" t="n">
-        <v>187824.3543274881</v>
+        <v>228763.9070284098</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.372241510167973e-06</v>
+        <v>7.624807413083016e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.839409722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>169898.6615636625</v>
+        <v>206931.0008138443</v>
       </c>
     </row>
     <row r="4">
@@ -13232,28 +13232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.520508394525</v>
+        <v>147.6102326367476</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.4791853930935</v>
+        <v>201.9668323973707</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.8271368223</v>
+        <v>182.6914013756526</v>
       </c>
       <c r="AD4" t="n">
-        <v>127520.5083945249</v>
+        <v>147610.2326367476</v>
       </c>
       <c r="AE4" t="n">
-        <v>174479.1853930935</v>
+        <v>201966.8323973707</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.682496906567653e-06</v>
+        <v>8.165865733149695e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.518229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>157827.1368223</v>
+        <v>182691.4013756526</v>
       </c>
     </row>
     <row r="5">
@@ -13338,28 +13338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.5649615072989</v>
+        <v>142.4840935489293</v>
       </c>
       <c r="AB5" t="n">
-        <v>167.6987875186952</v>
+        <v>194.9530227481254</v>
       </c>
       <c r="AC5" t="n">
-        <v>151.6938506046839</v>
+        <v>176.3469798753854</v>
       </c>
       <c r="AD5" t="n">
-        <v>122564.9615072989</v>
+        <v>142484.0935489293</v>
       </c>
       <c r="AE5" t="n">
-        <v>167698.7875186952</v>
+        <v>194953.0227481255</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.84210975506114e-06</v>
+        <v>8.444216603655403e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.370659722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>151693.8506046839</v>
+        <v>176346.9798753854</v>
       </c>
     </row>
     <row r="6">
@@ -13444,28 +13444,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>116.6172378719349</v>
+        <v>136.5363699135654</v>
       </c>
       <c r="AB6" t="n">
-        <v>159.5608496457464</v>
+        <v>186.8150848751767</v>
       </c>
       <c r="AC6" t="n">
-        <v>144.3325861006592</v>
+        <v>168.9857153713608</v>
       </c>
       <c r="AD6" t="n">
-        <v>116617.2378719349</v>
+        <v>136536.3699135653</v>
       </c>
       <c r="AE6" t="n">
-        <v>159560.8496457464</v>
+        <v>186815.0848751767</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.031753609868613e-06</v>
+        <v>8.774938926889123e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.205729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>144332.5861006592</v>
+        <v>168985.7153713608</v>
       </c>
     </row>
     <row r="7">
@@ -13550,28 +13550,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>113.6448236187724</v>
+        <v>133.5639556604029</v>
       </c>
       <c r="AB7" t="n">
-        <v>155.4938613309097</v>
+        <v>182.74809656034</v>
       </c>
       <c r="AC7" t="n">
-        <v>140.6537454425353</v>
+        <v>165.3068747132368</v>
       </c>
       <c r="AD7" t="n">
-        <v>113644.8236187724</v>
+        <v>133563.9556604029</v>
       </c>
       <c r="AE7" t="n">
-        <v>155493.8613309097</v>
+        <v>182748.09656034</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.112388811887009e-06</v>
+        <v>8.91555967820752e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.138454861111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>140653.7454425353</v>
+        <v>165306.8747132368</v>
       </c>
     </row>
     <row r="8">
@@ -13656,28 +13656,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>112.2772604694355</v>
+        <v>132.1963925110659</v>
       </c>
       <c r="AB8" t="n">
-        <v>153.6227010973597</v>
+        <v>180.87693632679</v>
       </c>
       <c r="AC8" t="n">
-        <v>138.9611661154848</v>
+        <v>163.6142953861864</v>
       </c>
       <c r="AD8" t="n">
-        <v>112277.2604694355</v>
+        <v>132196.3925110659</v>
       </c>
       <c r="AE8" t="n">
-        <v>153622.7010973597</v>
+        <v>180876.93632679</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.137447151571081e-06</v>
+        <v>8.95925923454226e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.118923611111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>138961.1661154848</v>
+        <v>163614.2953861864</v>
       </c>
     </row>
     <row r="9">
@@ -13762,28 +13762,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>108.4384844814418</v>
+        <v>128.3576165230723</v>
       </c>
       <c r="AB9" t="n">
-        <v>148.3703184357453</v>
+        <v>175.6245536651756</v>
       </c>
       <c r="AC9" t="n">
-        <v>134.2100634833279</v>
+        <v>158.8631927540294</v>
       </c>
       <c r="AD9" t="n">
-        <v>108438.4844814418</v>
+        <v>128357.6165230723</v>
       </c>
       <c r="AE9" t="n">
-        <v>148370.3184357453</v>
+        <v>175624.5536651756</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.246845817429171e-06</v>
+        <v>9.150040955194308e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.032118055555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>134210.0634833279</v>
+        <v>158863.1927540294</v>
       </c>
     </row>
     <row r="10">
@@ -13868,28 +13868,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>106.8738664297022</v>
+        <v>126.7929984713326</v>
       </c>
       <c r="AB10" t="n">
-        <v>146.2295389912794</v>
+        <v>173.4837742207096</v>
       </c>
       <c r="AC10" t="n">
-        <v>132.2735970244383</v>
+        <v>156.9267262951398</v>
       </c>
       <c r="AD10" t="n">
-        <v>106873.8664297022</v>
+        <v>126792.9984713326</v>
       </c>
       <c r="AE10" t="n">
-        <v>146229.5389912793</v>
+        <v>173483.7742207096</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.266248967612558e-06</v>
+        <v>9.183878354846496e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.016927083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>132273.5970244383</v>
+        <v>156926.7262951398</v>
       </c>
     </row>
     <row r="11">
@@ -13974,28 +13974,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>105.7227599735996</v>
+        <v>125.6418920152301</v>
       </c>
       <c r="AB11" t="n">
-        <v>144.6545443548079</v>
+        <v>171.9087795842382</v>
       </c>
       <c r="AC11" t="n">
-        <v>130.8489176655523</v>
+        <v>155.5020469362538</v>
       </c>
       <c r="AD11" t="n">
-        <v>105722.7599735996</v>
+        <v>125641.8920152301</v>
       </c>
       <c r="AE11" t="n">
-        <v>144654.5443548079</v>
+        <v>171908.7795842382</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.282044496907576e-06</v>
+        <v>9.211424378683958e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.006076388888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>130848.9176655523</v>
+        <v>155502.0469362538</v>
       </c>
     </row>
     <row r="12">
@@ -14080,28 +14080,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>105.9301712455801</v>
+        <v>125.8493032872106</v>
       </c>
       <c r="AB12" t="n">
-        <v>144.938333607471</v>
+        <v>172.1925688369013</v>
       </c>
       <c r="AC12" t="n">
-        <v>131.105622470242</v>
+        <v>155.7587517409435</v>
       </c>
       <c r="AD12" t="n">
-        <v>105930.1712455801</v>
+        <v>125849.3032872106</v>
       </c>
       <c r="AE12" t="n">
-        <v>144938.333607471</v>
+        <v>172192.5688369013</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.281654483838563e-06</v>
+        <v>9.210744229947233e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.006076388888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>131105.622470242</v>
+        <v>155758.7517409435</v>
       </c>
     </row>
   </sheetData>
@@ -14377,28 +14377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>314.8087955854855</v>
+        <v>366.325240495589</v>
       </c>
       <c r="AB2" t="n">
-        <v>430.7352825039306</v>
+        <v>501.2223551750813</v>
       </c>
       <c r="AC2" t="n">
-        <v>389.6265116825205</v>
+        <v>453.3863970671645</v>
       </c>
       <c r="AD2" t="n">
-        <v>314808.7955854855</v>
+        <v>366325.240495589</v>
       </c>
       <c r="AE2" t="n">
-        <v>430735.2825039306</v>
+        <v>501222.3551750813</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.560327978710362e-06</v>
+        <v>4.352387874540737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.977430555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>389626.5116825205</v>
+        <v>453386.3970671645</v>
       </c>
     </row>
     <row r="3">
@@ -14483,28 +14483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.3386325483633</v>
+        <v>207.1803163193187</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.2742965639784</v>
+        <v>283.4732489384375</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.2474163305843</v>
+        <v>256.41895991704</v>
       </c>
       <c r="AD3" t="n">
-        <v>176338.6325483633</v>
+        <v>207180.3163193187</v>
       </c>
       <c r="AE3" t="n">
-        <v>241274.2965639784</v>
+        <v>283473.2489384374</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.847126892619818e-06</v>
+        <v>6.539860743814602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.308159722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>218247.4163305843</v>
+        <v>256418.95991704</v>
       </c>
     </row>
     <row r="4">
@@ -14589,28 +14589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.0576504965945</v>
+        <v>178.9845856135705</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.5790092518958</v>
+        <v>244.894606279004</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.2451529303776</v>
+        <v>221.5222087675455</v>
       </c>
       <c r="AD4" t="n">
-        <v>148057.6504965945</v>
+        <v>178984.5856135705</v>
       </c>
       <c r="AE4" t="n">
-        <v>202579.0092518958</v>
+        <v>244894.606279004</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.259998013465338e-06</v>
+        <v>7.241714285649201e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.793836805555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>183245.1529303776</v>
+        <v>221522.2087675456</v>
       </c>
     </row>
     <row r="5">
@@ -14695,28 +14695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>137.7663990574944</v>
+        <v>158.5265905597644</v>
       </c>
       <c r="AB5" t="n">
-        <v>188.4980650149555</v>
+        <v>216.903074903357</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.5080742486771</v>
+        <v>196.2021498600204</v>
       </c>
       <c r="AD5" t="n">
-        <v>137766.3990574944</v>
+        <v>158526.5905597644</v>
       </c>
       <c r="AE5" t="n">
-        <v>188498.0650149555</v>
+        <v>216903.074903357</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.530665290317791e-06</v>
+        <v>7.701830717451411e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.507378472222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>170508.0742486771</v>
+        <v>196202.1498600204</v>
       </c>
     </row>
     <row r="6">
@@ -14801,28 +14801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>133.9260725585758</v>
+        <v>154.5156718602537</v>
       </c>
       <c r="AB6" t="n">
-        <v>183.24356087589</v>
+        <v>211.4151589894446</v>
       </c>
       <c r="AC6" t="n">
-        <v>165.7550526098994</v>
+        <v>191.2379929385917</v>
       </c>
       <c r="AD6" t="n">
-        <v>133926.0725585758</v>
+        <v>154515.6718602537</v>
       </c>
       <c r="AE6" t="n">
-        <v>183243.56087589</v>
+        <v>211415.1589894446</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.640306242172141e-06</v>
+        <v>7.888213068998551e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.401041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>165755.0526098994</v>
+        <v>191237.9929385917</v>
       </c>
     </row>
     <row r="7">
@@ -14907,28 +14907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>129.2331644020028</v>
+        <v>149.8227637036806</v>
       </c>
       <c r="AB7" t="n">
-        <v>176.822516899574</v>
+        <v>204.9941150131286</v>
       </c>
       <c r="AC7" t="n">
-        <v>159.9468240586891</v>
+        <v>185.4297643873814</v>
       </c>
       <c r="AD7" t="n">
-        <v>129233.1644020028</v>
+        <v>149822.7637036806</v>
       </c>
       <c r="AE7" t="n">
-        <v>176822.516899574</v>
+        <v>204994.1150131286</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.770840147942083e-06</v>
+        <v>8.110112057492873e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.281684027777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>159946.8240586891</v>
+        <v>185429.7643873814</v>
       </c>
     </row>
     <row r="8">
@@ -15013,28 +15013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>127.1902397503509</v>
+        <v>147.7798390520288</v>
       </c>
       <c r="AB8" t="n">
-        <v>174.0272972637106</v>
+        <v>202.1988953772652</v>
       </c>
       <c r="AC8" t="n">
-        <v>157.4183762617563</v>
+        <v>182.9013165904485</v>
       </c>
       <c r="AD8" t="n">
-        <v>127190.2397503509</v>
+        <v>147779.8390520288</v>
       </c>
       <c r="AE8" t="n">
-        <v>174027.2972637106</v>
+        <v>202198.8953772652</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.824578331211467e-06</v>
+        <v>8.20146340747864e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.233940972222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>157418.3762617563</v>
+        <v>182901.3165904485</v>
       </c>
     </row>
     <row r="9">
@@ -15119,28 +15119,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>123.6595268597127</v>
+        <v>144.2491261613906</v>
       </c>
       <c r="AB9" t="n">
-        <v>169.1964201226823</v>
+        <v>197.368018236237</v>
       </c>
       <c r="AC9" t="n">
-        <v>153.0485512548876</v>
+        <v>178.5314915835798</v>
       </c>
       <c r="AD9" t="n">
-        <v>123659.5268597127</v>
+        <v>144249.1261613906</v>
       </c>
       <c r="AE9" t="n">
-        <v>169196.4201226823</v>
+        <v>197368.018236237</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.915208577250728e-06</v>
+        <v>8.355528819100867e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.155815972222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>153048.5512548876</v>
+        <v>178531.4915835798</v>
       </c>
     </row>
     <row r="10">
@@ -15225,28 +15225,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>122.1310656759999</v>
+        <v>142.7206649776778</v>
       </c>
       <c r="AB10" t="n">
-        <v>167.1051121001792</v>
+        <v>195.2767102137338</v>
       </c>
       <c r="AC10" t="n">
-        <v>151.1568347348822</v>
+        <v>176.6397750635745</v>
       </c>
       <c r="AD10" t="n">
-        <v>122131.0656759999</v>
+        <v>142720.6649776778</v>
       </c>
       <c r="AE10" t="n">
-        <v>167105.1121001792</v>
+        <v>195276.7102137338</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.953135876475881e-06</v>
+        <v>8.420002714099577e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.123263888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>151156.8347348822</v>
+        <v>176639.7750635745</v>
       </c>
     </row>
     <row r="11">
@@ -15331,28 +15331,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>121.4755366791948</v>
+        <v>142.0651359808727</v>
       </c>
       <c r="AB11" t="n">
-        <v>166.2081884068526</v>
+        <v>194.3797865204072</v>
       </c>
       <c r="AC11" t="n">
-        <v>150.3455121800061</v>
+        <v>175.8284525086983</v>
       </c>
       <c r="AD11" t="n">
-        <v>121475.5366791948</v>
+        <v>142065.1359808727</v>
       </c>
       <c r="AE11" t="n">
-        <v>166208.1884068526</v>
+        <v>194379.7865204072</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.94786558179447e-06</v>
+        <v>8.411043562437225e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.127604166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>150345.5121800061</v>
+        <v>175828.4525086983</v>
       </c>
     </row>
     <row r="12">
@@ -15437,28 +15437,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>119.0898295193545</v>
+        <v>139.6794288210323</v>
       </c>
       <c r="AB12" t="n">
-        <v>162.943958620789</v>
+        <v>191.1155567343436</v>
       </c>
       <c r="AC12" t="n">
-        <v>147.3928159033481</v>
+        <v>172.8757562320403</v>
       </c>
       <c r="AD12" t="n">
-        <v>119089.8295193545</v>
+        <v>139679.4288210323</v>
       </c>
       <c r="AE12" t="n">
-        <v>162943.958620789</v>
+        <v>191115.5567343436</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.010920893161349e-06</v>
+        <v>8.51823341268322e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.075520833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>147392.8159033481</v>
+        <v>172875.7562320404</v>
       </c>
     </row>
     <row r="13">
@@ -15543,28 +15543,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>117.4297250050674</v>
+        <v>138.0193243067452</v>
       </c>
       <c r="AB13" t="n">
-        <v>160.6725303857002</v>
+        <v>188.8441284992549</v>
       </c>
       <c r="AC13" t="n">
-        <v>145.338169591046</v>
+        <v>170.8211099197382</v>
       </c>
       <c r="AD13" t="n">
-        <v>117429.7250050674</v>
+        <v>138019.3243067452</v>
       </c>
       <c r="AE13" t="n">
-        <v>160672.5303857002</v>
+        <v>188844.1284992549</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.026543552395531e-06</v>
+        <v>8.54479089796805e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH13" t="n">
-        <v>145338.169591046</v>
+        <v>170821.1099197382</v>
       </c>
     </row>
     <row r="14">
@@ -15649,28 +15649,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>116.333478107675</v>
+        <v>136.9230774093529</v>
       </c>
       <c r="AB14" t="n">
-        <v>159.1725970176889</v>
+        <v>187.3441951312436</v>
       </c>
       <c r="AC14" t="n">
-        <v>143.9813877585075</v>
+        <v>169.4643280871997</v>
       </c>
       <c r="AD14" t="n">
-        <v>116333.478107675</v>
+        <v>136923.0774093529</v>
       </c>
       <c r="AE14" t="n">
-        <v>159172.5970176889</v>
+        <v>187344.1951312436</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.046495382260871e-06</v>
+        <v>8.578707686404095e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.047309027777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>143981.3877585075</v>
+        <v>169464.3280871997</v>
       </c>
     </row>
     <row r="15">
@@ -15755,28 +15755,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>114.9357469406702</v>
+        <v>135.525346242348</v>
       </c>
       <c r="AB15" t="n">
-        <v>157.2601595714468</v>
+        <v>185.4317576850015</v>
       </c>
       <c r="AC15" t="n">
-        <v>142.2514706580113</v>
+        <v>167.7344109867035</v>
       </c>
       <c r="AD15" t="n">
-        <v>114935.7469406702</v>
+        <v>135525.346242348</v>
       </c>
       <c r="AE15" t="n">
-        <v>157260.1595714468</v>
+        <v>185431.7576850014</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.060894580229726e-06</v>
+        <v>8.603185368624449e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.036458333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>142251.4706580113</v>
+        <v>167734.4109867035</v>
       </c>
     </row>
     <row r="16">
@@ -15861,28 +15861,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>114.9615613618885</v>
+        <v>135.5511606635663</v>
       </c>
       <c r="AB16" t="n">
-        <v>157.2954800014095</v>
+        <v>185.4670781149642</v>
       </c>
       <c r="AC16" t="n">
-        <v>142.2834201557109</v>
+        <v>167.7663604844032</v>
       </c>
       <c r="AD16" t="n">
-        <v>114961.5613618885</v>
+        <v>135551.1606635663</v>
       </c>
       <c r="AE16" t="n">
-        <v>157295.4800014095</v>
+        <v>185467.0781149642</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.06569431288601e-06</v>
+        <v>8.611344596031234e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.032118055555555</v>
       </c>
       <c r="AH16" t="n">
-        <v>142283.4201557109</v>
+        <v>167766.3604844032</v>
       </c>
     </row>
   </sheetData>
@@ -16158,28 +16158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.3861006693913</v>
+        <v>193.2105397528529</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.9203151386863</v>
+        <v>264.3591843371629</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.4542359395597</v>
+        <v>239.1291148145468</v>
       </c>
       <c r="AD2" t="n">
-        <v>164386.1006693913</v>
+        <v>193210.5397528529</v>
       </c>
       <c r="AE2" t="n">
-        <v>224920.3151386863</v>
+        <v>264359.1843371629</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.809111240202125e-06</v>
+        <v>6.868728953949165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.80078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>203454.2359395597</v>
+        <v>239129.1148145468</v>
       </c>
     </row>
     <row r="3">
@@ -16264,28 +16264,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.6215319941561</v>
+        <v>148.3606302230461</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.6714574038699</v>
+        <v>202.9935594801488</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.0508832236229</v>
+        <v>183.6201390666712</v>
       </c>
       <c r="AD3" t="n">
-        <v>119621.5319941561</v>
+        <v>148360.6302230461</v>
       </c>
       <c r="AE3" t="n">
-        <v>163671.4574038699</v>
+        <v>202993.5594801488</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.744487722714071e-06</v>
+        <v>8.55543409935521e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.657118055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>148050.8832236229</v>
+        <v>183620.1390666712</v>
       </c>
     </row>
     <row r="4">
@@ -16370,28 +16370,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.8355221764088</v>
+        <v>125.9665635526959</v>
       </c>
       <c r="AB4" t="n">
-        <v>146.1770746922943</v>
+        <v>172.3530095052961</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.2261398445142</v>
+        <v>155.9038801771267</v>
       </c>
       <c r="AD4" t="n">
-        <v>106835.5221764088</v>
+        <v>125966.5635526959</v>
       </c>
       <c r="AE4" t="n">
-        <v>146177.0746922943</v>
+        <v>172353.0095052961</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.214874067462649e-06</v>
+        <v>9.403651991134455e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.236111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>132226.1398445142</v>
+        <v>155903.8801771267</v>
       </c>
     </row>
     <row r="5">
@@ -16476,28 +16476,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.3734263066937</v>
+        <v>122.5044676829809</v>
       </c>
       <c r="AB5" t="n">
-        <v>141.4400823864624</v>
+        <v>167.6160171994642</v>
       </c>
       <c r="AC5" t="n">
-        <v>127.9412394359389</v>
+        <v>151.6189797685514</v>
       </c>
       <c r="AD5" t="n">
-        <v>103373.4263066937</v>
+        <v>122504.4676829809</v>
       </c>
       <c r="AE5" t="n">
-        <v>141440.0823864624</v>
+        <v>167616.0171994642</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.332776099328203e-06</v>
+        <v>9.616257254918086e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.142795138888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>127941.2394359389</v>
+        <v>151618.9797685514</v>
       </c>
     </row>
     <row r="6">
@@ -16582,28 +16582,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.32144026018723</v>
+        <v>118.4524816364744</v>
       </c>
       <c r="AB6" t="n">
-        <v>135.8959763166269</v>
+        <v>162.0719111296287</v>
       </c>
       <c r="AC6" t="n">
-        <v>122.9262550682051</v>
+        <v>146.6039954008176</v>
       </c>
       <c r="AD6" t="n">
-        <v>99321.44026018723</v>
+        <v>118452.4816364744</v>
       </c>
       <c r="AE6" t="n">
-        <v>135895.9763166269</v>
+        <v>162071.9111296287</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.459536055867591e-06</v>
+        <v>9.844835453027427e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.047309027777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>122926.2550682051</v>
+        <v>146603.9954008175</v>
       </c>
     </row>
     <row r="7">
@@ -16688,28 +16688,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>96.6338482350744</v>
+        <v>115.7648896113616</v>
       </c>
       <c r="AB7" t="n">
-        <v>132.2186943396773</v>
+        <v>158.3946291526792</v>
       </c>
       <c r="AC7" t="n">
-        <v>119.5999277220367</v>
+        <v>143.2776680546492</v>
       </c>
       <c r="AD7" t="n">
-        <v>96633.8482350744</v>
+        <v>115764.8896113615</v>
       </c>
       <c r="AE7" t="n">
-        <v>132218.6943396773</v>
+        <v>158394.6291526792</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.522763311298082e-06</v>
+        <v>9.95884915666269e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.001736111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>119599.9277220367</v>
+        <v>143277.6680546492</v>
       </c>
     </row>
     <row r="8">
@@ -16794,28 +16794,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>96.82371650310012</v>
+        <v>115.9547578793873</v>
       </c>
       <c r="AB8" t="n">
-        <v>132.4784804803868</v>
+        <v>158.6544152933886</v>
       </c>
       <c r="AC8" t="n">
-        <v>119.8349202380891</v>
+        <v>143.5126605707016</v>
       </c>
       <c r="AD8" t="n">
-        <v>96823.71650310012</v>
+        <v>115954.7578793873</v>
       </c>
       <c r="AE8" t="n">
-        <v>132478.4804803868</v>
+        <v>158654.4152933887</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.515127169337879e-06</v>
+        <v>9.945079385692248e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.006076388888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>119834.9202380891</v>
+        <v>143512.6605707016</v>
       </c>
     </row>
   </sheetData>
@@ -17091,28 +17091,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.6133715840095</v>
+        <v>150.1169020915128</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.0792213733238</v>
+        <v>205.3965681318303</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.8927132282788</v>
+        <v>185.7938079452808</v>
       </c>
       <c r="AD2" t="n">
-        <v>131613.3715840095</v>
+        <v>150116.9020915128</v>
       </c>
       <c r="AE2" t="n">
-        <v>180079.2213733238</v>
+        <v>205396.5681318303</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.437242687660467e-06</v>
+        <v>8.278476522773066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.186631944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>162892.7132282788</v>
+        <v>185793.8079452808</v>
       </c>
     </row>
     <row r="3">
@@ -17197,28 +17197,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.91509151581693</v>
+        <v>118.3332811687486</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.708236154624</v>
+        <v>161.9088157909329</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.6609939672779</v>
+        <v>146.4564656523411</v>
       </c>
       <c r="AD3" t="n">
-        <v>99915.09151581692</v>
+        <v>118333.2811687486</v>
       </c>
       <c r="AE3" t="n">
-        <v>136708.236154624</v>
+        <v>161908.8157909329</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.29853739262941e-06</v>
+        <v>9.885377135647487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.344618055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>123660.9939672779</v>
+        <v>146456.4656523411</v>
       </c>
     </row>
     <row r="4">
@@ -17303,28 +17303,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.81502484793312</v>
+        <v>111.2332145008648</v>
       </c>
       <c r="AB4" t="n">
-        <v>126.9936117067958</v>
+        <v>152.1941913431046</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.8735196421862</v>
+        <v>137.6689913272494</v>
       </c>
       <c r="AD4" t="n">
-        <v>92815.02484793312</v>
+        <v>111233.2145008648</v>
       </c>
       <c r="AE4" t="n">
-        <v>126993.6117067958</v>
+        <v>152194.1913431046</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.595605052845887e-06</v>
+        <v>1.043961043409119e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.112413194444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>114873.5196421862</v>
+        <v>137668.9913272494</v>
       </c>
     </row>
     <row r="5">
@@ -17409,28 +17409,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.74278735962667</v>
+        <v>107.1609770125583</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.4217967208591</v>
+        <v>146.6223763571679</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.8334708584141</v>
+        <v>132.6289425434773</v>
       </c>
       <c r="AD5" t="n">
-        <v>88742.78735962667</v>
+        <v>107160.9770125583</v>
       </c>
       <c r="AE5" t="n">
-        <v>121421.7967208591</v>
+        <v>146622.3763571679</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.73931325691348e-06</v>
+        <v>1.070772400759751e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>109833.4708584141</v>
+        <v>132628.9425434773</v>
       </c>
     </row>
     <row r="6">
@@ -17515,28 +17515,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>89.11506165216525</v>
+        <v>107.5332513050969</v>
       </c>
       <c r="AB6" t="n">
-        <v>121.9311588314928</v>
+        <v>147.1317384678016</v>
       </c>
       <c r="AC6" t="n">
-        <v>110.2942201641033</v>
+        <v>133.0896918491665</v>
       </c>
       <c r="AD6" t="n">
-        <v>89115.06165216526</v>
+        <v>107533.2513050969</v>
       </c>
       <c r="AE6" t="n">
-        <v>121931.1588314928</v>
+        <v>147131.7384678016</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.736979987179541e-06</v>
+        <v>1.07033708720867e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.012586805555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>110294.2201641033</v>
+        <v>133089.6918491665</v>
       </c>
     </row>
   </sheetData>
@@ -32345,28 +32345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.1669643392249</v>
+        <v>128.982091424131</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.7893478972268</v>
+        <v>176.478987774692</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.4480487295351</v>
+        <v>159.6360808713397</v>
       </c>
       <c r="AD2" t="n">
-        <v>102166.9643392249</v>
+        <v>128982.091424131</v>
       </c>
       <c r="AE2" t="n">
-        <v>139789.3478972268</v>
+        <v>176478.987774692</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.972139834513208e-06</v>
+        <v>9.561609286652232e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.789496527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>126448.0487295351</v>
+        <v>159636.0808713397</v>
       </c>
     </row>
     <row r="3">
@@ -32451,28 +32451,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.42296780972246</v>
+        <v>104.271361756687</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.2477172694662</v>
+        <v>142.6686772832588</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.9623210950126</v>
+        <v>129.0525789601293</v>
       </c>
       <c r="AD3" t="n">
-        <v>86422.96780972247</v>
+        <v>104271.361756687</v>
       </c>
       <c r="AE3" t="n">
-        <v>118247.7172694662</v>
+        <v>142668.6772832588</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.748899543876703e-06</v>
+        <v>1.105534701281061e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>106962.3210950126</v>
+        <v>129052.5789601293</v>
       </c>
     </row>
     <row r="4">
@@ -32557,28 +32557,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.64395341766674</v>
+        <v>101.4923473646313</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.4453471767953</v>
+        <v>138.8663071905879</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.5228438673251</v>
+        <v>125.6131017324417</v>
       </c>
       <c r="AD4" t="n">
-        <v>83643.95341766674</v>
+        <v>101492.3473646313</v>
       </c>
       <c r="AE4" t="n">
-        <v>114445.3471767953</v>
+        <v>138866.3071905879</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.860805603700256e-06</v>
+        <v>1.127054651573174e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>103522.843867325</v>
+        <v>125613.1017324417</v>
       </c>
     </row>
   </sheetData>
@@ -32854,28 +32854,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.07234109914479</v>
+        <v>89.79122325332925</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.98080081598123</v>
+        <v>122.8563129643494</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.43877351006417</v>
+        <v>111.1310788849824</v>
       </c>
       <c r="AD2" t="n">
-        <v>73072.34109914479</v>
+        <v>89791.22325332926</v>
       </c>
       <c r="AE2" t="n">
-        <v>99980.80081598123</v>
+        <v>122856.3129643494</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.952830814592581e-06</v>
+        <v>1.227830479836588e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.292534722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>90438.77351006417</v>
+        <v>111131.0788849824</v>
       </c>
     </row>
     <row r="3">
@@ -32960,28 +32960,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.35978185131745</v>
+        <v>90.07866400550191</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.3740899340947</v>
+        <v>123.2496020824629</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.79452766672975</v>
+        <v>111.4868330416479</v>
       </c>
       <c r="AD3" t="n">
-        <v>73359.78185131746</v>
+        <v>90078.66400550191</v>
       </c>
       <c r="AE3" t="n">
-        <v>100374.0899340947</v>
+        <v>123249.6020824629</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.964370731508098e-06</v>
+        <v>1.23021070231644e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.283854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>90794.52766672974</v>
+        <v>111486.8330416479</v>
       </c>
     </row>
   </sheetData>
@@ -33257,28 +33257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.8153025180078</v>
+        <v>244.6313212831412</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.9197738872973</v>
+        <v>334.7153661516447</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.8684831865738</v>
+        <v>302.7706013821983</v>
       </c>
       <c r="AD2" t="n">
-        <v>214815.3025180078</v>
+        <v>244631.3212831412</v>
       </c>
       <c r="AE2" t="n">
-        <v>293919.7738872973</v>
+        <v>334715.3661516447</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.27109822945111e-06</v>
+        <v>5.747190551596264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.534288194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>265868.4831865738</v>
+        <v>302770.6013821983</v>
       </c>
     </row>
     <row r="3">
@@ -33363,28 +33363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.5513343880556</v>
+        <v>162.1966714440457</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.3625834618175</v>
+        <v>221.9246414817696</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.053593040257</v>
+        <v>200.7444651720038</v>
       </c>
       <c r="AD3" t="n">
-        <v>132551.3343880555</v>
+        <v>162196.6714440457</v>
       </c>
       <c r="AE3" t="n">
-        <v>181362.5834618174</v>
+        <v>221924.6414817696</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.469558820486425e-06</v>
+        <v>7.852838533440697e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.780815972222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>164053.593040257</v>
+        <v>200744.4651720038</v>
       </c>
     </row>
     <row r="4">
@@ -33469,28 +33469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.9885796890211</v>
+        <v>142.723780283375</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.2784006036424</v>
+        <v>195.2809727124263</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.218146230296</v>
+        <v>176.6436307553742</v>
       </c>
       <c r="AD4" t="n">
-        <v>122988.579689021</v>
+        <v>142723.780283375</v>
       </c>
       <c r="AE4" t="n">
-        <v>168278.4006036424</v>
+        <v>195280.9727124263</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.784093177739243e-06</v>
+        <v>8.405462991453116e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.466145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>152218.146230296</v>
+        <v>176643.6307553742</v>
       </c>
     </row>
     <row r="5">
@@ -33575,28 +33575,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.0115376157269</v>
+        <v>136.7467382100808</v>
       </c>
       <c r="AB5" t="n">
-        <v>160.1003479504793</v>
+        <v>187.1029200592632</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.8205954443792</v>
+        <v>169.2460799694574</v>
       </c>
       <c r="AD5" t="n">
-        <v>117011.5376157268</v>
+        <v>136746.7382100808</v>
       </c>
       <c r="AE5" t="n">
-        <v>160100.3479504792</v>
+        <v>187102.9200592632</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.98439464381696e-06</v>
+        <v>8.757384765904353e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.288194444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>144820.5954443792</v>
+        <v>169246.0799694574</v>
       </c>
     </row>
     <row r="6">
@@ -33681,28 +33681,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>111.7730186973367</v>
+        <v>131.5082192916906</v>
       </c>
       <c r="AB6" t="n">
-        <v>152.9327752591975</v>
+        <v>179.9353473679814</v>
       </c>
       <c r="AC6" t="n">
-        <v>138.3370858309997</v>
+        <v>162.7625703560778</v>
       </c>
       <c r="AD6" t="n">
-        <v>111773.0186973367</v>
+        <v>131508.2192916906</v>
       </c>
       <c r="AE6" t="n">
-        <v>152932.7752591975</v>
+        <v>179935.3473679814</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.150032336020855e-06</v>
+        <v>9.048403657068061e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.149305555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>138337.0858309997</v>
+        <v>162762.5703560778</v>
       </c>
     </row>
     <row r="7">
@@ -33787,28 +33787,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>109.6920919884876</v>
+        <v>129.4272925828415</v>
       </c>
       <c r="AB7" t="n">
-        <v>150.0855595321444</v>
+        <v>177.0881316409283</v>
       </c>
       <c r="AC7" t="n">
-        <v>135.7616043768432</v>
+        <v>160.1870889019214</v>
       </c>
       <c r="AD7" t="n">
-        <v>109692.0919884876</v>
+        <v>129427.2925828415</v>
       </c>
       <c r="AE7" t="n">
-        <v>150085.5595321444</v>
+        <v>177088.1316409283</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.207444211499376e-06</v>
+        <v>9.149274057513033e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.103732638888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>135761.6043768432</v>
+        <v>160187.0889019214</v>
       </c>
     </row>
     <row r="8">
@@ -33893,28 +33893,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>107.4630089788541</v>
+        <v>127.198209573208</v>
       </c>
       <c r="AB8" t="n">
-        <v>147.0356298181635</v>
+        <v>174.0382019269475</v>
       </c>
       <c r="AC8" t="n">
-        <v>133.0027556741605</v>
+        <v>157.4282401992386</v>
       </c>
       <c r="AD8" t="n">
-        <v>107463.0089788541</v>
+        <v>127198.209573208</v>
       </c>
       <c r="AE8" t="n">
-        <v>147035.6298181635</v>
+        <v>174038.2019269475</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.251955648405535e-06</v>
+        <v>9.227478896279976e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.069010416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>133002.7556741605</v>
+        <v>157428.2401992386</v>
       </c>
     </row>
     <row r="9">
@@ -33999,28 +33999,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>104.9963304269707</v>
+        <v>124.7315310213247</v>
       </c>
       <c r="AB9" t="n">
-        <v>143.6606114013009</v>
+        <v>170.6631835100849</v>
       </c>
       <c r="AC9" t="n">
-        <v>129.9498442781341</v>
+        <v>154.3753288032123</v>
       </c>
       <c r="AD9" t="n">
-        <v>104996.3304269707</v>
+        <v>124731.5310213247</v>
       </c>
       <c r="AE9" t="n">
-        <v>143660.6114013009</v>
+        <v>170663.1835100849</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.310253813556966e-06</v>
+        <v>9.329906472718095e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.0234375</v>
       </c>
       <c r="AH9" t="n">
-        <v>129949.8442781341</v>
+        <v>154375.3288032123</v>
       </c>
     </row>
     <row r="10">
@@ -34105,28 +34105,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>93.43740600682327</v>
+        <v>122.9974022082418</v>
       </c>
       <c r="AB10" t="n">
-        <v>127.8451810659077</v>
+        <v>168.2904719636622</v>
       </c>
       <c r="AC10" t="n">
-        <v>115.6438164168498</v>
+        <v>152.2290655166578</v>
       </c>
       <c r="AD10" t="n">
-        <v>93437.40600682326</v>
+        <v>122997.4022082418</v>
       </c>
       <c r="AE10" t="n">
-        <v>127845.1810659077</v>
+        <v>168290.4719636622</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.342751101563674e-06</v>
+        <v>9.387002925800153e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.999565972222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>115643.8164168498</v>
+        <v>152229.0655166578</v>
       </c>
     </row>
     <row r="11">
@@ -34211,28 +34211,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>93.63705900754643</v>
+        <v>123.1970552089649</v>
       </c>
       <c r="AB11" t="n">
-        <v>128.1183551095658</v>
+        <v>168.5636460073203</v>
       </c>
       <c r="AC11" t="n">
-        <v>115.8909191131835</v>
+        <v>152.4761682129914</v>
       </c>
       <c r="AD11" t="n">
-        <v>93637.05900754643</v>
+        <v>123197.0552089649</v>
       </c>
       <c r="AE11" t="n">
-        <v>128118.3551095658</v>
+        <v>168563.6460073203</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.344819110800465e-06</v>
+        <v>9.390636336450831e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.997395833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>115890.9191131835</v>
+        <v>152476.1682129914</v>
       </c>
     </row>
   </sheetData>
@@ -34508,28 +34508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>294.2321491704521</v>
+        <v>335.2637762601144</v>
       </c>
       <c r="AB2" t="n">
-        <v>402.5814071013099</v>
+        <v>458.7226894730163</v>
       </c>
       <c r="AC2" t="n">
-        <v>364.1596026341137</v>
+        <v>414.9428398110492</v>
       </c>
       <c r="AD2" t="n">
-        <v>294232.1491704521</v>
+        <v>335263.7762601144</v>
       </c>
       <c r="AE2" t="n">
-        <v>402581.4071013099</v>
+        <v>458722.6894730162</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.686958003422661e-06</v>
+        <v>4.594398744816182e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.664930555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>364159.6026341137</v>
+        <v>414942.8398110492</v>
       </c>
     </row>
     <row r="3">
@@ -34614,28 +34614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.0046751265772</v>
+        <v>189.5205781799591</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.2396524681294</v>
+        <v>259.3104161235166</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.1704645835285</v>
+        <v>234.5621939532186</v>
       </c>
       <c r="AD3" t="n">
-        <v>169004.6751265772</v>
+        <v>189520.5781799591</v>
       </c>
       <c r="AE3" t="n">
-        <v>231239.6524681294</v>
+        <v>259310.4161235166</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.965481230691371e-06</v>
+        <v>6.780530981754499e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.193142361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>209170.4645835285</v>
+        <v>234562.1939532186</v>
       </c>
     </row>
     <row r="4">
@@ -34720,28 +34720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.8380605532405</v>
+        <v>173.5264400159152</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.437336019346</v>
+        <v>237.4265306759065</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.7850709677388</v>
+        <v>214.7668758184954</v>
       </c>
       <c r="AD4" t="n">
-        <v>142838.0605532405</v>
+        <v>173526.4400159152</v>
       </c>
       <c r="AE4" t="n">
-        <v>195437.336019346</v>
+        <v>237426.5306759065</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.359011685933955e-06</v>
+        <v>7.453424204242674e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.724392361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>176785.0709677388</v>
+        <v>214766.8758184953</v>
       </c>
     </row>
     <row r="5">
@@ -34826,28 +34826,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.8554836207996</v>
+        <v>153.2860458196099</v>
       </c>
       <c r="AB5" t="n">
-        <v>181.7787338601748</v>
+        <v>209.7327303933643</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.430026628666</v>
+        <v>189.7161329664173</v>
       </c>
       <c r="AD5" t="n">
-        <v>132855.4836207996</v>
+        <v>153286.0458196099</v>
       </c>
       <c r="AE5" t="n">
-        <v>181778.7338601748</v>
+        <v>209732.7303933643</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.634112913266546e-06</v>
+        <v>7.923816645041621e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>164430.026628666</v>
+        <v>189716.1329664174</v>
       </c>
     </row>
     <row r="6">
@@ -34932,28 +34932,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.2285911114919</v>
+        <v>149.6591533103021</v>
       </c>
       <c r="AB6" t="n">
-        <v>176.8162595217376</v>
+        <v>204.7702560549271</v>
       </c>
       <c r="AC6" t="n">
-        <v>159.9411638762112</v>
+        <v>185.2272702139626</v>
       </c>
       <c r="AD6" t="n">
-        <v>129228.5911114918</v>
+        <v>149659.1533103021</v>
       </c>
       <c r="AE6" t="n">
-        <v>176816.2595217376</v>
+        <v>204770.2560549271</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.744476047929465e-06</v>
+        <v>8.112525306183106e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>159941.1638762112</v>
+        <v>185227.2702139626</v>
       </c>
     </row>
     <row r="7">
@@ -35038,28 +35038,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>124.0159576958087</v>
+        <v>144.4465198946189</v>
       </c>
       <c r="AB7" t="n">
-        <v>169.6841045172473</v>
+        <v>197.6381010504368</v>
       </c>
       <c r="AC7" t="n">
-        <v>153.4896917353047</v>
+        <v>178.7757980730561</v>
       </c>
       <c r="AD7" t="n">
-        <v>124015.9576958087</v>
+        <v>144446.5198946189</v>
       </c>
       <c r="AE7" t="n">
-        <v>169684.1045172473</v>
+        <v>197638.1010504368</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.897447133979874e-06</v>
+        <v>8.37408881586503e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.205729166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>153489.6917353047</v>
+        <v>178775.7980730561</v>
       </c>
     </row>
     <row r="8">
@@ -35144,28 +35144,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>123.1798548888611</v>
+        <v>143.6104170876714</v>
       </c>
       <c r="AB8" t="n">
-        <v>168.5401117705297</v>
+        <v>196.4941083037192</v>
       </c>
       <c r="AC8" t="n">
-        <v>152.4548800507296</v>
+        <v>177.740986388481</v>
       </c>
       <c r="AD8" t="n">
-        <v>123179.8548888611</v>
+        <v>143610.4170876713</v>
       </c>
       <c r="AE8" t="n">
-        <v>168540.1117705297</v>
+        <v>196494.1083037192</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.909783511887165e-06</v>
+        <v>8.395182647290992e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.194878472222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>152454.8800507296</v>
+        <v>177740.986388481</v>
       </c>
     </row>
     <row r="9">
@@ -35250,28 +35250,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>122.1307346518292</v>
+        <v>142.5612968506395</v>
       </c>
       <c r="AB9" t="n">
-        <v>167.1046591783051</v>
+        <v>195.0586557114946</v>
       </c>
       <c r="AC9" t="n">
-        <v>151.1564250392361</v>
+        <v>176.4425313769875</v>
       </c>
       <c r="AD9" t="n">
-        <v>122130.7346518292</v>
+        <v>142561.2968506395</v>
       </c>
       <c r="AE9" t="n">
-        <v>167104.6591783051</v>
+        <v>195058.6557114946</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.928382973962772e-06</v>
+        <v>8.426985654671673e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.1796875</v>
       </c>
       <c r="AH9" t="n">
-        <v>151156.4250392361</v>
+        <v>176442.5313769875</v>
       </c>
     </row>
     <row r="10">
@@ -35356,28 +35356,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>118.8737505330482</v>
+        <v>139.3043127318585</v>
       </c>
       <c r="AB10" t="n">
-        <v>162.6483098189928</v>
+        <v>190.6023063521823</v>
       </c>
       <c r="AC10" t="n">
-        <v>147.1253834082495</v>
+        <v>172.4114897460009</v>
       </c>
       <c r="AD10" t="n">
-        <v>118873.7505330482</v>
+        <v>139304.3127318585</v>
       </c>
       <c r="AE10" t="n">
-        <v>162648.3098189928</v>
+        <v>190602.3063521823</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.006007259564034e-06</v>
+        <v>8.559714532413493e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.114583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>147125.3834082496</v>
+        <v>172411.4897460009</v>
       </c>
     </row>
     <row r="11">
@@ -35462,28 +35462,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>117.2646625367913</v>
+        <v>137.6952247356015</v>
       </c>
       <c r="AB11" t="n">
-        <v>160.4466846345628</v>
+        <v>188.4006811677523</v>
       </c>
       <c r="AC11" t="n">
-        <v>145.1338782414205</v>
+        <v>170.4199845791719</v>
       </c>
       <c r="AD11" t="n">
-        <v>117264.6625367913</v>
+        <v>137695.2247356015</v>
       </c>
       <c r="AE11" t="n">
-        <v>160446.6846345628</v>
+        <v>188400.6811677523</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.042352126783208e-06</v>
+        <v>8.621860204999211e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.084201388888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>145133.8782414205</v>
+        <v>170419.9845791719</v>
       </c>
     </row>
     <row r="12">
@@ -35568,28 +35568,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>115.2863402964832</v>
+        <v>135.7169024952935</v>
       </c>
       <c r="AB12" t="n">
-        <v>157.7398568679572</v>
+        <v>185.6938534011467</v>
       </c>
       <c r="AC12" t="n">
-        <v>142.6853863178023</v>
+        <v>167.9714926555536</v>
       </c>
       <c r="AD12" t="n">
-        <v>115286.3402964832</v>
+        <v>135716.9024952935</v>
       </c>
       <c r="AE12" t="n">
-        <v>157739.8568679572</v>
+        <v>185693.8534011467</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.070061529467277e-06</v>
+        <v>8.669240195586756e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH12" t="n">
-        <v>142685.3863178022</v>
+        <v>167971.4926555536</v>
       </c>
     </row>
     <row r="13">
@@ -35674,28 +35674,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>113.0242398406421</v>
+        <v>133.4548020394524</v>
       </c>
       <c r="AB13" t="n">
-        <v>154.6447512274482</v>
+        <v>182.5987477606377</v>
       </c>
       <c r="AC13" t="n">
-        <v>139.8856732156143</v>
+        <v>165.1717795533657</v>
       </c>
       <c r="AD13" t="n">
-        <v>113024.2398406421</v>
+        <v>133454.8020394524</v>
       </c>
       <c r="AE13" t="n">
-        <v>154644.7512274481</v>
+        <v>182598.7477606377</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.126144601338115e-06</v>
+        <v>8.765135998454013e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.016927083333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>139885.6732156143</v>
+        <v>165171.7795533657</v>
       </c>
     </row>
     <row r="14">
@@ -35780,28 +35780,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>112.0596472562774</v>
+        <v>132.4902094550877</v>
       </c>
       <c r="AB14" t="n">
-        <v>153.3249530986996</v>
+        <v>181.2789496318891</v>
       </c>
       <c r="AC14" t="n">
-        <v>138.6918347679249</v>
+        <v>163.9779411056762</v>
       </c>
       <c r="AD14" t="n">
-        <v>112059.6472562774</v>
+        <v>132490.2094550877</v>
       </c>
       <c r="AE14" t="n">
-        <v>153324.9530986996</v>
+        <v>181278.9496318891</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.12775781998753e-06</v>
+        <v>8.767894422563561e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.016927083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>138691.8347679249</v>
+        <v>163977.9411056762</v>
       </c>
     </row>
     <row r="15">
@@ -35886,28 +35886,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>112.2488096439774</v>
+        <v>132.6793718427877</v>
       </c>
       <c r="AB15" t="n">
-        <v>153.5837734228062</v>
+        <v>181.5377699559957</v>
       </c>
       <c r="AC15" t="n">
-        <v>138.9259536435554</v>
+        <v>164.2120599813067</v>
       </c>
       <c r="AD15" t="n">
-        <v>112248.8096439774</v>
+        <v>132679.3718427877</v>
       </c>
       <c r="AE15" t="n">
-        <v>153583.7734228062</v>
+        <v>181537.7699559957</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.127947610416873e-06</v>
+        <v>8.768218943047038e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.016927083333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>138925.9536435554</v>
+        <v>164212.0599813067</v>
       </c>
     </row>
   </sheetData>
@@ -36183,28 +36183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.22396109244555</v>
+        <v>84.58515888051146</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.34703339538873</v>
+        <v>115.7331460141132</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.43812354153988</v>
+        <v>104.6877369910468</v>
       </c>
       <c r="AD2" t="n">
-        <v>68223.96109244555</v>
+        <v>84585.15888051146</v>
       </c>
       <c r="AE2" t="n">
-        <v>93347.03339538873</v>
+        <v>115733.1460141132</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.797145803164379e-06</v>
+        <v>1.242595356624166e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.563802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>84438.12354153988</v>
+        <v>104687.7369910468</v>
       </c>
     </row>
   </sheetData>
@@ -36480,28 +36480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.1518706842783</v>
+        <v>170.1160104089238</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.4984607680717</v>
+        <v>232.7602304300878</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.9358006527262</v>
+        <v>210.5459207189426</v>
       </c>
       <c r="AD2" t="n">
-        <v>142151.8706842783</v>
+        <v>170116.0104089238</v>
       </c>
       <c r="AE2" t="n">
-        <v>194498.4607680717</v>
+        <v>232760.2304300878</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.210259336741412e-06</v>
+        <v>7.757118783237878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.386284722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>175935.8006527262</v>
+        <v>210545.9207189426</v>
       </c>
     </row>
     <row r="3">
@@ -36586,28 +36586,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.3774384231371</v>
+        <v>125.0486750272751</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.5503042918394</v>
+        <v>171.0971139304321</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.6591875314008</v>
+        <v>154.7678455132668</v>
       </c>
       <c r="AD3" t="n">
-        <v>106377.4384231371</v>
+        <v>125048.6750272751</v>
       </c>
       <c r="AE3" t="n">
-        <v>145550.3042918394</v>
+        <v>171097.1139304321</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.104253586871387e-06</v>
+        <v>9.404242875873273e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>131659.1875314008</v>
+        <v>154767.8455132669</v>
       </c>
     </row>
     <row r="4">
@@ -36692,28 +36692,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.42235313601054</v>
+        <v>117.0935897401485</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.6658056484045</v>
+        <v>160.2126152869972</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.813490162002</v>
+        <v>144.9221481438681</v>
       </c>
       <c r="AD4" t="n">
-        <v>98422.35313601054</v>
+        <v>117093.5897401485</v>
       </c>
       <c r="AE4" t="n">
-        <v>134665.8056484045</v>
+        <v>160212.6152869972</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.429389910480734e-06</v>
+        <v>1.000328461683524e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.177517361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>121813.490162002</v>
+        <v>144922.1481438681</v>
       </c>
     </row>
     <row r="5">
@@ -36798,28 +36798,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.22192061661551</v>
+        <v>112.8931572207535</v>
       </c>
       <c r="AB5" t="n">
-        <v>128.9185885653668</v>
+        <v>154.4653982039596</v>
       </c>
       <c r="AC5" t="n">
-        <v>116.6147794110978</v>
+        <v>139.7234373929639</v>
       </c>
       <c r="AD5" t="n">
-        <v>94221.92061661551</v>
+        <v>112893.1572207535</v>
       </c>
       <c r="AE5" t="n">
-        <v>128918.5885653668</v>
+        <v>154465.3982039595</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.562433478450743e-06</v>
+        <v>1.024840841504951e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.077690972222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>116614.7794110978</v>
+        <v>139723.4373929639</v>
       </c>
     </row>
     <row r="6">
@@ -36904,28 +36904,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>91.67121181126076</v>
+        <v>110.3424484153987</v>
       </c>
       <c r="AB6" t="n">
-        <v>125.4285962485517</v>
+        <v>150.9754058871444</v>
       </c>
       <c r="AC6" t="n">
-        <v>113.4578670627634</v>
+        <v>136.5665250446295</v>
       </c>
       <c r="AD6" t="n">
-        <v>91671.21181126076</v>
+        <v>110342.4484153987</v>
       </c>
       <c r="AE6" t="n">
-        <v>125428.5962485517</v>
+        <v>150975.4058871444</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.666109220340962e-06</v>
+        <v>1.04394239750091e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.001736111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>113457.8670627634</v>
+        <v>136566.5250446295</v>
       </c>
     </row>
     <row r="7">
@@ -37010,28 +37010,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>91.92313651295812</v>
+        <v>110.5943731170961</v>
       </c>
       <c r="AB7" t="n">
-        <v>125.7732907395473</v>
+        <v>151.32010037814</v>
       </c>
       <c r="AC7" t="n">
-        <v>113.7696643953202</v>
+        <v>136.8783223771863</v>
       </c>
       <c r="AD7" t="n">
-        <v>91923.13651295812</v>
+        <v>110594.3731170961</v>
       </c>
       <c r="AE7" t="n">
-        <v>125773.2907395473</v>
+        <v>151320.10037814</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.664332519119053e-06</v>
+        <v>1.04361505228727e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.00390625</v>
       </c>
       <c r="AH7" t="n">
-        <v>113769.6643953202</v>
+        <v>136878.3223771863</v>
       </c>
     </row>
   </sheetData>
@@ -37307,28 +37307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.1785805687799</v>
+        <v>216.2346219454662</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.1059916702604</v>
+        <v>295.8617493438987</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.6635952723423</v>
+        <v>267.6251192311775</v>
       </c>
       <c r="AD2" t="n">
-        <v>187178.58056878</v>
+        <v>216234.6219454661</v>
       </c>
       <c r="AE2" t="n">
-        <v>256105.9916702604</v>
+        <v>295861.7493438987</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.612750136064478e-06</v>
+        <v>6.453914465786116e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.043836805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>231663.5952723423</v>
+        <v>267625.1192311775</v>
       </c>
     </row>
     <row r="3">
@@ -37413,28 +37413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.9908176759512</v>
+        <v>159.0467695440863</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.8591715342931</v>
+        <v>217.614806738383</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.8845418300249</v>
+        <v>196.8459550076336</v>
       </c>
       <c r="AD3" t="n">
-        <v>129990.8176759512</v>
+        <v>159046.7695440863</v>
       </c>
       <c r="AE3" t="n">
-        <v>177859.1715342931</v>
+        <v>217614.806738383</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.483637848509834e-06</v>
+        <v>8.009691808181915e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.869791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>160884.5418300249</v>
+        <v>196845.9550076336</v>
       </c>
     </row>
     <row r="4">
@@ -37519,28 +37519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.9081890756269</v>
+        <v>132.2504662114108</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.485965450956</v>
+        <v>180.9509223491652</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.7420417307733</v>
+        <v>163.6812202864261</v>
       </c>
       <c r="AD4" t="n">
-        <v>112908.1890756269</v>
+        <v>132250.4662114108</v>
       </c>
       <c r="AE4" t="n">
-        <v>154485.965450956</v>
+        <v>180950.9223491652</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.039879012507284e-06</v>
+        <v>9.003376054139627e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.333767361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>139742.0417307733</v>
+        <v>163681.2202864261</v>
       </c>
     </row>
     <row r="5">
@@ -37625,28 +37625,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.2126037001836</v>
+        <v>127.5548808359676</v>
       </c>
       <c r="AB5" t="n">
-        <v>148.0612583856712</v>
+        <v>174.5262152838804</v>
       </c>
       <c r="AC5" t="n">
-        <v>133.9304996906643</v>
+        <v>157.869678246317</v>
       </c>
       <c r="AD5" t="n">
-        <v>108212.6037001837</v>
+        <v>127554.8808359675</v>
       </c>
       <c r="AE5" t="n">
-        <v>148061.2583856712</v>
+        <v>174526.2152838804</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.199768160407419e-06</v>
+        <v>9.289006348428123e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.19921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>133930.4996906643</v>
+        <v>157869.678246317</v>
       </c>
     </row>
     <row r="6">
@@ -37731,28 +37731,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>104.3340044717527</v>
+        <v>123.6762816075367</v>
       </c>
       <c r="AB6" t="n">
-        <v>142.7543878096133</v>
+        <v>169.2193447078224</v>
       </c>
       <c r="AC6" t="n">
-        <v>129.1301093941439</v>
+        <v>153.0692879497967</v>
       </c>
       <c r="AD6" t="n">
-        <v>104334.0044717527</v>
+        <v>123676.2816075367</v>
       </c>
       <c r="AE6" t="n">
-        <v>142754.3878096133</v>
+        <v>169219.3447078224</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.325646904286003e-06</v>
+        <v>9.513879537952923e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.099392361111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>129130.1093941439</v>
+        <v>153069.2879497967</v>
       </c>
     </row>
     <row r="7">
@@ -37837,28 +37837,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>101.7142605276201</v>
+        <v>121.056537663404</v>
       </c>
       <c r="AB7" t="n">
-        <v>139.1699385703068</v>
+        <v>165.6348954685159</v>
       </c>
       <c r="AC7" t="n">
-        <v>125.8877549594296</v>
+        <v>149.8269335150824</v>
       </c>
       <c r="AD7" t="n">
-        <v>101714.2605276201</v>
+        <v>121056.537663404</v>
       </c>
       <c r="AE7" t="n">
-        <v>139169.9385703068</v>
+        <v>165634.8954685159</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.376561887821225e-06</v>
+        <v>9.604835440350643e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH7" t="n">
-        <v>125887.7549594296</v>
+        <v>149826.9335150824</v>
       </c>
     </row>
     <row r="8">
@@ -37943,28 +37943,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>99.45624970254549</v>
+        <v>118.7985268383294</v>
       </c>
       <c r="AB8" t="n">
-        <v>136.0804285430342</v>
+        <v>162.5453854412434</v>
       </c>
       <c r="AC8" t="n">
-        <v>123.0931034330045</v>
+        <v>147.0322819886572</v>
       </c>
       <c r="AD8" t="n">
-        <v>99456.24970254549</v>
+        <v>118798.5268383294</v>
       </c>
       <c r="AE8" t="n">
-        <v>136080.4285430342</v>
+        <v>162545.3854412434</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.435526671124863e-06</v>
+        <v>9.710171722574091e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.016927083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>123093.1034330045</v>
+        <v>147032.2819886572</v>
       </c>
     </row>
     <row r="9">
@@ -38049,28 +38049,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>99.16046253845708</v>
+        <v>118.502739674241</v>
       </c>
       <c r="AB9" t="n">
-        <v>135.67571949592</v>
+        <v>162.1406763941291</v>
       </c>
       <c r="AC9" t="n">
-        <v>122.7270192493339</v>
+        <v>146.6661978049867</v>
       </c>
       <c r="AD9" t="n">
-        <v>99160.46253845708</v>
+        <v>118502.739674241</v>
       </c>
       <c r="AE9" t="n">
-        <v>135675.71949592</v>
+        <v>162140.6763941291</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.450720668187744e-06</v>
+        <v>9.737314689495149e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.006076388888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>122727.0192493339</v>
+        <v>146666.1978049867</v>
       </c>
     </row>
   </sheetData>
